--- a/SZW tabel JB 20220812.xlsx
+++ b/SZW tabel JB 20220812.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josbe\Dropbox\Jos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24325E56-CE39-4091-AB20-5FFAC398878E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B80D55C-3281-4083-B488-33AC7F8F491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F39CEEDE-C4C4-40F8-9FF0-47E78F9F46F1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>verw. st. nom.</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve"> beleggingen</t>
+  </si>
+  <si>
+    <t>Download Excel op Github</t>
   </si>
 </sst>
 </file>
@@ -4249,7 +4252,7 @@
   <dimension ref="C5:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="C6" sqref="C6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4276,7 +4279,9 @@
       <c r="J5" s="35"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -4768,9 +4773,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C5:J5" r:id="rId1" display="RekenvoorbeeldBureau Confident 22 Juli 2022" xr:uid="{50B29E0E-F265-492E-AC94-7160736575A3}"/>
+    <hyperlink ref="C6:J6" r:id="rId2" display="Download Excel op Github" xr:uid="{4154FF93-F6BF-4370-B6B5-D6E0CCFD8C17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/SZW tabel JB 20220812.xlsx
+++ b/SZW tabel JB 20220812.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josbe\Dropbox\Jos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B80D55C-3281-4083-B488-33AC7F8F491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F005A38-7E43-49D1-BB13-61C63C05B1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F39CEEDE-C4C4-40F8-9FF0-47E78F9F46F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F39CEEDE-C4C4-40F8-9FF0-47E78F9F46F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t>verw. st. nom.</t>
   </si>
@@ -136,13 +136,16 @@
     <t xml:space="preserve"> rendement</t>
   </si>
   <si>
-    <t>beleggingen</t>
-  </si>
-  <si>
     <t xml:space="preserve"> beleggingen</t>
   </si>
   <si>
     <t>Download Excel op Github</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stijging nominale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stijging nominale </t>
   </si>
 </sst>
 </file>
@@ -181,13 +184,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -197,6 +193,13 @@
       <b/>
       <sz val="12"/>
       <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -392,7 +395,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -405,24 +408,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,18 +418,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -462,8 +435,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,30 +450,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -2887,8 +2906,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6536121" y="3431027"/>
-          <a:ext cx="848380" cy="807269"/>
+          <a:off x="6558354" y="2667000"/>
+          <a:ext cx="848380" cy="810301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3283,8 +3302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD106E4B-B7D2-4516-8F13-238CDA6F0812}">
   <dimension ref="C4:AG26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3297,52 +3316,52 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="32"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="3:33" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="33"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="26" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="33"/>
+      <c r="I7" s="24"/>
       <c r="AB7" t="s">
         <v>10</v>
       </c>
@@ -3357,285 +3376,285 @@
       </c>
     </row>
     <row r="8" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="33"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="19">
         <v>0.02</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="19">
         <v>0.04</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="19">
         <v>0.06</v>
       </c>
-      <c r="I9" s="33"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C10" s="18">
+      <c r="C10" s="12">
         <v>0.5</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="12">
         <f>1-C10</f>
         <v>0.5</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="13">
         <f>C10*$C$26+D10*$D$26</f>
         <v>3.5500000000000004E-2</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="13">
         <f>$E10-F$9</f>
         <v>1.5500000000000003E-2</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="13">
         <f t="shared" ref="G10:H12" si="0">$E10-G$9</f>
         <v>-4.4999999999999971E-3</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="13">
         <f t="shared" si="0"/>
         <v>-2.4499999999999994E-2</v>
       </c>
-      <c r="I10" s="33"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <f>C10+10%</f>
         <v>0.6</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="12">
         <f t="shared" ref="D11:D12" si="1">1-C11</f>
         <v>0.4</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="13">
         <f>C11*$C$26+D11*$D$26</f>
         <v>3.1400000000000004E-2</v>
       </c>
-      <c r="F11" s="19">
-        <f t="shared" ref="F11:H12" si="2">$E11-F$9</f>
+      <c r="F11" s="13">
+        <f t="shared" ref="F11:F12" si="2">$E11-F$9</f>
         <v>1.1400000000000004E-2</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>-8.5999999999999965E-3</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="13">
         <f t="shared" si="0"/>
         <v>-2.8599999999999993E-2</v>
       </c>
-      <c r="I11" s="33"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C12" s="18">
+      <c r="C12" s="12">
         <f>C11+10%</f>
         <v>0.7</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="12">
         <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="13">
         <f>C12*$C$26+D12*$D$26</f>
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="13">
         <f t="shared" si="2"/>
         <v>7.3000000000000009E-3</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="13">
         <f t="shared" si="0"/>
         <v>-1.2699999999999999E-2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="13">
         <f t="shared" si="0"/>
         <v>-3.2699999999999993E-2</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="14" spans="3:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="32"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="33"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="33"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="26" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="33"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="33"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="19">
         <v>0.02</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="19">
         <v>0.04</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="19">
         <v>0.06</v>
       </c>
-      <c r="I19" s="33"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="18">
-        <f>C10</f>
+      <c r="C20" s="12">
+        <f t="shared" ref="C20:D22" si="3">C10</f>
         <v>0.5</v>
       </c>
-      <c r="D20" s="18">
-        <f>D10</f>
+      <c r="D20" s="12">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="13">
         <f>E10-$C$26</f>
         <v>2.0500000000000004E-2</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="13">
         <f>$E20-F$9</f>
         <v>5.0000000000000391E-4</v>
       </c>
-      <c r="G20" s="19">
-        <f t="shared" ref="G20:H22" si="3">$E20-G$9</f>
+      <c r="G20" s="13">
+        <f t="shared" ref="G20:H22" si="4">$E20-G$9</f>
         <v>-1.9499999999999997E-2</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="13">
+        <f t="shared" si="4"/>
+        <v>-3.9499999999999993E-2</v>
+      </c>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="12">
         <f t="shared" si="3"/>
-        <v>-3.9499999999999993E-2</v>
-      </c>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="18">
-        <f>C11</f>
         <v>0.6</v>
       </c>
-      <c r="D21" s="18">
-        <f>D11</f>
+      <c r="D21" s="12">
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="13">
         <f>E11-$C$26</f>
         <v>1.6400000000000005E-2</v>
       </c>
-      <c r="F21" s="19">
-        <f t="shared" ref="F21:F22" si="4">$E21-F$9</f>
+      <c r="F21" s="13">
+        <f t="shared" ref="F21:F22" si="5">$E21-F$9</f>
         <v>-3.5999999999999956E-3</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="13">
+        <f t="shared" si="4"/>
+        <v>-2.3599999999999996E-2</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="4"/>
+        <v>-4.3599999999999993E-2</v>
+      </c>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="12">
         <f t="shared" si="3"/>
-        <v>-2.3599999999999996E-2</v>
-      </c>
-      <c r="H21" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="D22" s="12">
         <f t="shared" si="3"/>
-        <v>-4.3599999999999993E-2</v>
-      </c>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="18">
-        <f>C12</f>
-        <v>0.7</v>
-      </c>
-      <c r="D22" s="18">
-        <f>D12</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="13">
         <f>E12-$C$26</f>
         <v>1.2300000000000002E-2</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="13">
+        <f t="shared" si="5"/>
+        <v>-7.6999999999999985E-3</v>
+      </c>
+      <c r="G22" s="13">
         <f t="shared" si="4"/>
-        <v>-7.6999999999999985E-3</v>
-      </c>
-      <c r="G22" s="19">
-        <f t="shared" si="3"/>
         <v>-2.7699999999999999E-2</v>
       </c>
-      <c r="H22" s="19">
-        <f t="shared" si="3"/>
+      <c r="H22" s="13">
+        <f t="shared" si="4"/>
         <v>-4.7699999999999992E-2</v>
       </c>
-      <c r="I22" s="34"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -3643,16 +3662,16 @@
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="35"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3666,6 +3685,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
     <mergeCell ref="I4:I12"/>
     <mergeCell ref="I14:I22"/>
     <mergeCell ref="C14:H14"/>
@@ -3673,28 +3698,22 @@
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="F10:H12">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:H22">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{EF759C75-2795-499F-8B6E-C42D65BA6500}"/>
-    <hyperlink ref="C15" r:id="rId2" display="Nota-naar-aanleiding-van-het-nader-verslag-wetsvoorstel-toekomst-pensioenen" xr:uid="{10F4B063-3A70-4047-BA57-6078AB91D61E}"/>
+    <hyperlink ref="C14:H14" r:id="rId2" display="RekenvoorbeeldBureau Confident 22 Juli 2022" xr:uid="{8960E4FC-2602-4DEE-BD52-1EF8F3DE9EBE}"/>
     <hyperlink ref="C15:H15" r:id="rId3" display="Nota-naar-aanleiding-van-het-nader-verslag-wetsvoorstel-toekomst-pensioenen" xr:uid="{8C44FF2B-65B3-4657-8BE9-7C56DDE5751C}"/>
-    <hyperlink ref="C14:H14" r:id="rId4" display="RekenvoorbeeldBureau Confident 22 Juli 2022" xr:uid="{8960E4FC-2602-4DEE-BD52-1EF8F3DE9EBE}"/>
+    <hyperlink ref="C15" r:id="rId4" display="Nota-naar-aanleiding-van-het-nader-verslag-wetsvoorstel-toekomst-pensioenen" xr:uid="{10F4B063-3A70-4047-BA57-6078AB91D61E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
@@ -3706,8 +3725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D845C5F-F217-472C-9F85-E251725A69AC}">
   <dimension ref="C5:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3720,483 +3739,483 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="38"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="39"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="39"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="26" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="20" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="34"/>
+      <c r="E9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="39"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="19">
         <v>0.01</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="19">
         <v>0.02</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="19">
         <v>0.03</v>
       </c>
-      <c r="K10" s="39"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="12">
         <f>1-C11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="13">
         <f>C11*$C$25+D11*$D$25</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="13">
         <f>E11+F11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="13">
         <f>$G11-H$10</f>
         <v>-0.01</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="13">
         <f t="shared" ref="I11:J21" si="0">$G11-I$10</f>
         <v>-0.02</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>-0.03</v>
       </c>
-      <c r="K11" s="39"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="18">
+      <c r="C12" s="12">
         <f>C11-10%</f>
         <v>0.9</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="12">
         <f t="shared" ref="D12:D21" si="1">1-C12</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="13">
         <f t="shared" ref="E12:E21" si="2">C12*$C$25+D12*$D$25</f>
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="13">
         <f t="shared" ref="G12:G21" si="3">E12+F12</f>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="H12" s="19">
-        <f t="shared" ref="H12:J21" si="4">$G12-H$10</f>
+      <c r="H12" s="13">
+        <f t="shared" ref="H12:H21" si="4">$G12-H$10</f>
         <v>-5.9000000000000007E-3</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="13">
         <f t="shared" si="0"/>
         <v>-1.5900000000000001E-2</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="13">
         <f t="shared" si="0"/>
         <v>-2.5899999999999999E-2</v>
       </c>
-      <c r="K12" s="39"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="18">
+      <c r="C13" s="12">
         <f t="shared" ref="C13:C21" si="5">C12-10%</f>
         <v>0.8</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="12">
         <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="13">
         <f t="shared" si="2"/>
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="13">
         <f t="shared" si="3"/>
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="13">
         <f t="shared" si="4"/>
         <v>-1.8000000000000013E-3</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="13">
         <f t="shared" si="0"/>
         <v>-1.1800000000000001E-2</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="13">
         <f t="shared" si="0"/>
         <v>-2.18E-2</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="18">
+      <c r="C14" s="12">
         <f t="shared" si="5"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="12">
         <f t="shared" si="1"/>
         <v>0.29999999999999993</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="13">
         <f t="shared" si="2"/>
         <v>2.7299999999999998E-2</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="13">
         <f t="shared" si="3"/>
         <v>1.2299999999999998E-2</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="13">
         <f t="shared" si="4"/>
         <v>2.2999999999999982E-3</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
         <v>-7.700000000000002E-3</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="13">
         <f t="shared" si="0"/>
         <v>-1.77E-2</v>
       </c>
-      <c r="K14" s="40"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="18">
+      <c r="C15" s="12">
         <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="12">
         <f t="shared" si="1"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="13">
         <f t="shared" si="2"/>
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="13">
         <f t="shared" si="3"/>
         <v>1.6399999999999998E-2</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="13">
         <f t="shared" si="4"/>
         <v>6.3999999999999977E-3</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>-3.6000000000000025E-3</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="13">
         <f t="shared" si="0"/>
         <v>-1.3600000000000001E-2</v>
       </c>
-      <c r="K15" s="40"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="18">
+      <c r="C16" s="12">
         <f t="shared" si="5"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="12">
         <f t="shared" si="1"/>
         <v>0.49999999999999989</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="13">
         <f t="shared" si="2"/>
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="13">
         <f t="shared" si="3"/>
         <v>2.0499999999999997E-2</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="13">
         <f t="shared" si="4"/>
         <v>1.0499999999999997E-2</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>4.9999999999999697E-4</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="13">
         <f t="shared" si="0"/>
         <v>-9.5000000000000015E-3</v>
       </c>
-      <c r="K16" s="40"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="18">
+      <c r="C17" s="12">
         <f t="shared" si="5"/>
         <v>0.40000000000000013</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="12">
         <f t="shared" si="1"/>
         <v>0.59999999999999987</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="13">
         <f t="shared" si="2"/>
         <v>3.9599999999999996E-2</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="13">
         <f t="shared" si="3"/>
         <v>2.4599999999999997E-2</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="13">
         <f t="shared" si="4"/>
         <v>1.4599999999999997E-2</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>4.5999999999999965E-3</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="13">
         <f t="shared" si="0"/>
         <v>-5.400000000000002E-3</v>
       </c>
-      <c r="K17" s="40"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="18">
+      <c r="C18" s="12">
         <f t="shared" si="5"/>
         <v>0.30000000000000016</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="12">
         <f t="shared" si="1"/>
         <v>0.69999999999999984</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="13">
         <f t="shared" si="2"/>
         <v>4.3699999999999996E-2</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="13">
         <f t="shared" si="3"/>
         <v>2.8699999999999996E-2</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="13">
         <f t="shared" si="4"/>
         <v>1.8699999999999994E-2</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="13">
         <f t="shared" si="0"/>
         <v>8.6999999999999959E-3</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="13">
         <f t="shared" si="0"/>
         <v>-1.3000000000000025E-3</v>
       </c>
-      <c r="K18" s="40"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="18">
+      <c r="C19" s="12">
         <f t="shared" si="5"/>
         <v>0.20000000000000015</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="12">
         <f t="shared" si="1"/>
         <v>0.79999999999999982</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="13">
         <f t="shared" si="2"/>
         <v>4.7799999999999995E-2</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="13">
         <f t="shared" si="3"/>
         <v>3.2799999999999996E-2</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="13">
         <f t="shared" si="4"/>
         <v>2.2799999999999994E-2</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="13">
         <f t="shared" si="0"/>
         <v>1.2799999999999995E-2</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="13">
         <f t="shared" si="0"/>
         <v>2.7999999999999969E-3</v>
       </c>
-      <c r="K19" s="40"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="18">
+      <c r="C20" s="12">
         <f t="shared" si="5"/>
         <v>0.10000000000000014</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="12">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="13">
         <f t="shared" si="2"/>
         <v>5.1899999999999995E-2</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="13">
         <f t="shared" si="3"/>
         <v>3.6899999999999995E-2</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="13">
         <f t="shared" si="4"/>
         <v>2.6899999999999993E-2</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="13">
         <f t="shared" si="0"/>
         <v>1.6899999999999995E-2</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="13">
         <f t="shared" si="0"/>
         <v>6.8999999999999964E-3</v>
       </c>
-      <c r="K20" s="40"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="18">
+      <c r="C21" s="12">
         <f t="shared" si="5"/>
         <v>1.3877787807814457E-16</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="12">
         <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="13">
         <f t="shared" si="2"/>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="13">
         <f t="shared" si="3"/>
         <v>4.0999999999999995E-2</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="13">
         <f t="shared" si="4"/>
         <v>3.0999999999999993E-2</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="13">
         <f t="shared" si="0"/>
         <v>2.0999999999999994E-2</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="13">
         <f t="shared" si="0"/>
         <v>1.0999999999999996E-2</v>
       </c>
-      <c r="K21" s="40"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
@@ -4204,16 +4223,16 @@
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="35"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4226,16 +4245,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="K5:K21"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:J21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4251,8 +4271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47764C93-5FBA-4124-B935-49FAF1A10856}">
   <dimension ref="C5:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4267,465 +4287,465 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="C6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="26" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="20" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="34"/>
+      <c r="E9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="28" t="s">
+      <c r="E10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="19">
         <v>0.02</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="19">
         <v>0.04</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="19">
         <v>0.06</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="12">
         <f>1-C11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="13">
         <f>C11*$C$25+D11*$D$25</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="13">
         <f>E11+F11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="13">
         <f>$G11-H$10</f>
         <v>-0.02</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="13">
         <f t="shared" ref="I11:J21" si="0">$G11-I$10</f>
         <v>-0.04</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>-0.06</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="18">
+      <c r="C12" s="12">
         <f>C11-10%</f>
         <v>0.9</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="12">
         <f t="shared" ref="D12:D21" si="1">1-C12</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="13">
         <f t="shared" ref="E12:E21" si="2">C12*$C$25+D12*$D$25</f>
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="13">
         <f t="shared" ref="G12:G21" si="3">E12+F12</f>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="H12" s="19">
-        <f t="shared" ref="H12:J21" si="4">$G12-H$10</f>
+      <c r="H12" s="13">
+        <f t="shared" ref="H12:H21" si="4">$G12-H$10</f>
         <v>-1.5900000000000001E-2</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="13">
         <f t="shared" si="0"/>
         <v>-3.5900000000000001E-2</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="13">
         <f t="shared" si="0"/>
         <v>-5.5899999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="18">
+      <c r="C13" s="12">
         <f t="shared" ref="C13:C21" si="5">C12-10%</f>
         <v>0.8</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="12">
         <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="13">
         <f t="shared" si="2"/>
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="13">
         <f t="shared" si="3"/>
         <v>8.199999999999999E-3</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="13">
         <f t="shared" si="4"/>
         <v>-1.1800000000000001E-2</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="13">
         <f t="shared" si="0"/>
         <v>-3.1800000000000002E-2</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="13">
         <f t="shared" si="0"/>
         <v>-5.1799999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="18">
+      <c r="C14" s="12">
         <f t="shared" si="5"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="12">
         <f t="shared" si="1"/>
         <v>0.29999999999999993</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="13">
         <f t="shared" si="2"/>
         <v>2.7299999999999998E-2</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="13">
         <f t="shared" si="3"/>
         <v>1.2299999999999998E-2</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="13">
         <f t="shared" si="4"/>
         <v>-7.700000000000002E-3</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="13">
         <f t="shared" si="0"/>
         <v>-2.7700000000000002E-2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="13">
         <f t="shared" si="0"/>
         <v>-4.7699999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="18">
+      <c r="C15" s="12">
         <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="12">
         <f t="shared" si="1"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="13">
         <f t="shared" si="2"/>
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="13">
         <f t="shared" si="3"/>
         <v>1.6399999999999998E-2</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="13">
         <f t="shared" si="4"/>
         <v>-3.6000000000000025E-3</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>-2.3600000000000003E-2</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="13">
         <f t="shared" si="0"/>
         <v>-4.36E-2</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="18">
+      <c r="C16" s="12">
         <f t="shared" si="5"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="12">
         <f t="shared" si="1"/>
         <v>0.49999999999999989</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="13">
         <f t="shared" si="2"/>
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="13">
         <f t="shared" si="3"/>
         <v>2.0499999999999997E-2</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="13">
         <f t="shared" si="4"/>
         <v>4.9999999999999697E-4</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="13">
         <f t="shared" si="0"/>
         <v>-1.9500000000000003E-2</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="13">
         <f t="shared" si="0"/>
         <v>-3.95E-2</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="18">
+      <c r="C17" s="12">
         <f t="shared" si="5"/>
         <v>0.40000000000000013</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="12">
         <f t="shared" si="1"/>
         <v>0.59999999999999987</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="13">
         <f t="shared" si="2"/>
         <v>3.9599999999999996E-2</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="13">
         <f t="shared" si="3"/>
         <v>2.4599999999999997E-2</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="13">
         <f t="shared" si="4"/>
         <v>4.5999999999999965E-3</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>-1.5400000000000004E-2</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="13">
         <f t="shared" si="0"/>
         <v>-3.5400000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="18">
+      <c r="C18" s="12">
         <f t="shared" si="5"/>
         <v>0.30000000000000016</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="12">
         <f t="shared" si="1"/>
         <v>0.69999999999999984</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="13">
         <f t="shared" si="2"/>
         <v>4.3699999999999996E-2</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="13">
         <f t="shared" si="3"/>
         <v>2.8699999999999996E-2</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="13">
         <f t="shared" si="4"/>
         <v>8.6999999999999959E-3</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="13">
         <f t="shared" si="0"/>
         <v>-1.1300000000000004E-2</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="13">
         <f t="shared" si="0"/>
         <v>-3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="18">
+      <c r="C19" s="12">
         <f t="shared" si="5"/>
         <v>0.20000000000000015</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="12">
         <f t="shared" si="1"/>
         <v>0.79999999999999982</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="13">
         <f t="shared" si="2"/>
         <v>4.7799999999999995E-2</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="13">
         <f t="shared" si="3"/>
         <v>3.2799999999999996E-2</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="13">
         <f t="shared" si="4"/>
         <v>1.2799999999999995E-2</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="13">
         <f t="shared" si="0"/>
         <v>-7.200000000000005E-3</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="13">
         <f t="shared" si="0"/>
         <v>-2.7200000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="18">
+      <c r="C20" s="12">
         <f t="shared" si="5"/>
         <v>0.10000000000000014</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="12">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="13">
         <f t="shared" si="2"/>
         <v>5.1899999999999995E-2</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="13">
         <f t="shared" si="3"/>
         <v>3.6899999999999995E-2</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="13">
         <f t="shared" si="4"/>
         <v>1.6899999999999995E-2</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="13">
         <f t="shared" si="0"/>
         <v>-3.1000000000000055E-3</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="13">
         <f t="shared" si="0"/>
         <v>-2.3100000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="18">
+      <c r="C21" s="12">
         <f t="shared" si="5"/>
         <v>1.3877787807814457E-16</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="12">
         <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="13">
         <f t="shared" si="2"/>
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="13">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="13">
         <f t="shared" si="3"/>
         <v>4.0999999999999995E-2</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="13">
         <f t="shared" si="4"/>
         <v>2.0999999999999994E-2</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="13">
         <f t="shared" si="0"/>
         <v>9.9999999999999395E-4</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="13">
         <f t="shared" si="0"/>
         <v>-1.9000000000000003E-2</v>
       </c>
@@ -4736,16 +4756,16 @@
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="35"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4767,7 +4787,7 @@
     <mergeCell ref="C9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:J21">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SZW tabel JB 20220812.xlsx
+++ b/SZW tabel JB 20220812.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josbe\Dropbox\Jos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F005A38-7E43-49D1-BB13-61C63C05B1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E740465C-7EE9-47AF-838B-858544A9C3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F39CEEDE-C4C4-40F8-9FF0-47E78F9F46F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F39CEEDE-C4C4-40F8-9FF0-47E78F9F46F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Compare" sheetId="3" r:id="rId1"/>
     <sheet name="Complete INF-1-2-3" sheetId="5" r:id="rId2"/>
     <sheet name="Complete INF-2-4-6" sheetId="4" r:id="rId3"/>
-    <sheet name="calc" sheetId="1" r:id="rId4"/>
-    <sheet name="vb" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Voorbeeld" sheetId="6" r:id="rId4"/>
+    <sheet name="calc" sheetId="1" r:id="rId5"/>
+    <sheet name="vb" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
   <si>
     <t>verw. st. nom.</t>
   </si>
@@ -147,16 +148,84 @@
   <si>
     <t xml:space="preserve"> stijging nominale </t>
   </si>
+  <si>
+    <t>Aannames</t>
+  </si>
+  <si>
+    <t>Uitkomsten</t>
+  </si>
+  <si>
+    <t>Koopsom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start-Uitkering </t>
+  </si>
+  <si>
+    <t>Duur</t>
+  </si>
+  <si>
+    <t>Stijg. Uitk.</t>
+  </si>
+  <si>
+    <t>Risicovrije rente</t>
+  </si>
+  <si>
+    <t>Aandelenrendement</t>
+  </si>
+  <si>
+    <t>Deel in aandelen</t>
+  </si>
+  <si>
+    <t>Rendement</t>
+  </si>
+  <si>
+    <t>Projectierendement</t>
+  </si>
+  <si>
+    <t>Ontwikkeling</t>
+  </si>
+  <si>
+    <t>Jaar</t>
+  </si>
+  <si>
+    <t>Saldo Primo</t>
+  </si>
+  <si>
+    <t>Uitkering</t>
+  </si>
+  <si>
+    <t>Saldo Ultimo</t>
+  </si>
+  <si>
+    <t>Stijging Uitk.</t>
+  </si>
+  <si>
+    <t>Stijging</t>
+  </si>
+  <si>
+    <t>+ Gerealiseerd</t>
+  </si>
+  <si>
+    <t>-  Projectie</t>
+  </si>
+  <si>
+    <t>Verschil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0_ ;\-0\ "/>
     <numFmt numFmtId="165" formatCode="0%\ &quot;Inflatie&quot;"/>
+    <numFmt numFmtId="166" formatCode="0\ &quot;jr.&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.00000_ ;_ * \-#,##0.00000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="&quot; ← &quot;\ #,##0.00000_ ;\-#,##0.00000\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,16 +272,46 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF6DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -389,13 +488,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -441,29 +594,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,25 +609,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -507,12 +642,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="16" xfId="4" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Invoer" xfId="4" builtinId="20"/>
+    <cellStyle name="Komma" xfId="3" builtinId="3"/>
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3316,26 +3496,26 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="23"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="24"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" spans="3:33" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="28" t="s">
@@ -3346,13 +3526,13 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
       <c r="H6" s="30"/>
-      <c r="I6" s="24"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="16" t="s">
         <v>20</v>
       </c>
@@ -3361,7 +3541,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="34"/>
       <c r="AB7" t="s">
         <v>10</v>
       </c>
@@ -3376,10 +3556,10 @@
       </c>
     </row>
     <row r="8" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="17" t="s">
         <v>21</v>
       </c>
@@ -3388,7 +3568,7 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="24"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
@@ -3409,7 +3589,7 @@
       <c r="H9" s="19">
         <v>0.06</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C10" s="12">
@@ -3435,7 +3615,7 @@
         <f t="shared" si="0"/>
         <v>-2.4499999999999994E-2</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C11" s="12">
@@ -3462,7 +3642,7 @@
         <f t="shared" si="0"/>
         <v>-2.8599999999999993E-2</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C12" s="12">
@@ -3489,18 +3669,18 @@
         <f t="shared" si="0"/>
         <v>-3.2699999999999993E-2</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="14" spans="3:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="23"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C15" s="39" t="s">
@@ -3511,7 +3691,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="24"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C16" s="28" t="s">
@@ -3522,13 +3702,13 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="30"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="16" t="s">
         <v>20</v>
       </c>
@@ -3537,13 +3717,13 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="38"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="17" t="s">
         <v>34</v>
       </c>
@@ -3552,7 +3732,7 @@
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="24"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="15" t="s">
@@ -3573,7 +3753,7 @@
       <c r="H19" s="19">
         <v>0.06</v>
       </c>
-      <c r="I19" s="24"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="12">
@@ -3600,7 +3780,7 @@
         <f t="shared" si="4"/>
         <v>-3.9499999999999993E-2</v>
       </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="12">
@@ -3627,7 +3807,7 @@
         <f t="shared" si="4"/>
         <v>-4.3599999999999993E-2</v>
       </c>
-      <c r="I21" s="24"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="12">
@@ -3654,7 +3834,7 @@
         <f t="shared" si="4"/>
         <v>-4.7699999999999992E-2</v>
       </c>
-      <c r="I22" s="25"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -3662,10 +3842,10 @@
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="15" t="s">
@@ -3685,12 +3865,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
     <mergeCell ref="I4:I12"/>
     <mergeCell ref="I14:I22"/>
     <mergeCell ref="C14:H14"/>
@@ -3698,6 +3872,12 @@
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="F10:H12">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
@@ -3725,7 +3905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D845C5F-F217-472C-9F85-E251725A69AC}">
   <dimension ref="C5:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -3739,28 +3919,28 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="23"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="24"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" s="28" t="s">
@@ -3773,13 +3953,13 @@
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="30"/>
-      <c r="K7" s="24"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="16" t="s">
         <v>27</v>
       </c>
@@ -3794,13 +3974,13 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="17" t="s">
         <v>31</v>
       </c>
@@ -3815,7 +3995,7 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
@@ -3842,7 +4022,7 @@
       <c r="J10" s="19">
         <v>0.03</v>
       </c>
-      <c r="K10" s="24"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="12">
@@ -3875,7 +4055,7 @@
         <f t="shared" si="0"/>
         <v>-0.03</v>
       </c>
-      <c r="K11" s="24"/>
+      <c r="K11" s="34"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="12">
@@ -3909,7 +4089,7 @@
         <f t="shared" si="0"/>
         <v>-2.5899999999999999E-2</v>
       </c>
-      <c r="K12" s="24"/>
+      <c r="K12" s="34"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" s="12">
@@ -3943,7 +4123,7 @@
         <f t="shared" si="0"/>
         <v>-2.18E-2</v>
       </c>
-      <c r="K13" s="24"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" s="12">
@@ -3977,7 +4157,7 @@
         <f t="shared" si="0"/>
         <v>-1.77E-2</v>
       </c>
-      <c r="K14" s="24"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C15" s="12">
@@ -4011,7 +4191,7 @@
         <f t="shared" si="0"/>
         <v>-1.3600000000000001E-2</v>
       </c>
-      <c r="K15" s="24"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C16" s="12">
@@ -4045,7 +4225,7 @@
         <f t="shared" si="0"/>
         <v>-9.5000000000000015E-3</v>
       </c>
-      <c r="K16" s="24"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="12">
@@ -4079,7 +4259,7 @@
         <f t="shared" si="0"/>
         <v>-5.400000000000002E-3</v>
       </c>
-      <c r="K17" s="24"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="12">
@@ -4113,7 +4293,7 @@
         <f t="shared" si="0"/>
         <v>-1.3000000000000025E-3</v>
       </c>
-      <c r="K18" s="24"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="12">
@@ -4147,7 +4327,7 @@
         <f t="shared" si="0"/>
         <v>2.7999999999999969E-3</v>
       </c>
-      <c r="K19" s="24"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="12">
@@ -4181,7 +4361,7 @@
         <f t="shared" si="0"/>
         <v>6.8999999999999964E-3</v>
       </c>
-      <c r="K20" s="24"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="12">
@@ -4215,7 +4395,7 @@
         <f t="shared" si="0"/>
         <v>1.0999999999999996E-2</v>
       </c>
-      <c r="K21" s="25"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
@@ -4223,10 +4403,10 @@
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="15" t="s">
@@ -4287,28 +4467,28 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="28" t="s">
@@ -4323,10 +4503,10 @@
       <c r="J7" s="30"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="16" t="s">
         <v>27</v>
       </c>
@@ -4343,10 +4523,10 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="17" t="s">
         <v>31</v>
       </c>
@@ -4756,10 +4936,10 @@
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="15" t="s">
@@ -4801,6 +4981,5373 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E064BD2C-B5DE-4F71-8E5E-347AE0093BB1}">
+  <dimension ref="B3:N120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="2.75" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="10" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="12.625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="I3" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="48">
+        <v>100000</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="49">
+        <f>C4/(-1/PMT(C12,$C$5,1,0,1))</f>
+        <v>20599.933309865359</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="48">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="49">
+        <f>J4/(-1/PMT(J12,$J$5,1,0,1))</f>
+        <v>21091.60195414181</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="50">
+        <v>5</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1">
+        <f>(1+C10)/(1+C12)-1</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="50">
+        <v>5</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="1">
+        <f>(1+J10)/(1+J12)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="51">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="51">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="51">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1">
+        <f>C10</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G8" s="58">
+        <f>1+F8</f>
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="51">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="1">
+        <f>J10</f>
+        <v>2.7299999999999998E-2</v>
+      </c>
+      <c r="N8" s="58">
+        <f>1+M8</f>
+        <v>1.0273000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="60">
+        <f>C12</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G9" s="61">
+        <f>1+F9</f>
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="60">
+        <f>J12</f>
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="N9" s="61">
+        <f>1+M9</f>
+        <v>1.0273000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="54">
+        <f>C9*C8+(1-C9)*C7</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1">
+        <f>F8-F9</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="58">
+        <f>G8/G9</f>
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="54">
+        <f>J9*J8+(1-J9)*J7</f>
+        <v>2.7299999999999998E-2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="1">
+        <f>M8-M9</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="58">
+        <f>N8/N9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="61">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="57"/>
+      <c r="N11" s="61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="51">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <f>G12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="62">
+        <f>G10+G11</f>
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="51">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="M12" s="5">
+        <f>N12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="62">
+        <f>N10+N11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="55">
+        <f>C4</f>
+        <v>100000</v>
+      </c>
+      <c r="D17" s="55">
+        <f>-F4</f>
+        <v>-20599.933309865359</v>
+      </c>
+      <c r="E17" s="55">
+        <f>(C17+D17)*$C$10</f>
+        <v>1191.0010003520197</v>
+      </c>
+      <c r="F17" s="55">
+        <f>SUM(C17:E17)</f>
+        <v>80591.067690486656</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="55">
+        <f>J4</f>
+        <v>100000</v>
+      </c>
+      <c r="K17" s="55">
+        <f>-M4</f>
+        <v>-21091.60195414181</v>
+      </c>
+      <c r="L17" s="55">
+        <f>(J17+K17)*$J$10</f>
+        <v>2154.1992666519286</v>
+      </c>
+      <c r="M17" s="55">
+        <f>SUM(J17:L17)</f>
+        <v>81062.597312510115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>IF(B17&lt;$C$5,B17+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="55">
+        <f>IF(B17&lt;$C$5,F17,"")</f>
+        <v>80591.067690486656</v>
+      </c>
+      <c r="D18" s="55">
+        <f>IF(B17&lt;$C$5,-C18/(-1/PMT($C$12,$C$5-B17,1,0,1)),"")</f>
+        <v>-20599.933309865355</v>
+      </c>
+      <c r="E18" s="55">
+        <f>IF(B17&lt;$C$5,(C18+D18)*$C$10,"")</f>
+        <v>899.86701570931939</v>
+      </c>
+      <c r="F18" s="55">
+        <f>IF(B17&lt;$C$5,SUM(C18:E18),"")</f>
+        <v>60891.001396330619</v>
+      </c>
+      <c r="G18" s="5">
+        <f>IF(B17&lt;$C$5,D18/D17-1,"")</f>
+        <v>-2.2204460492503131E-16</v>
+      </c>
+      <c r="I18">
+        <f>IF(I17&lt;$J$5,I17+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="J18" s="55">
+        <f>IF(I17&lt;$J$5,M17,"")</f>
+        <v>81062.597312510115</v>
+      </c>
+      <c r="K18" s="55">
+        <f>IF(I17&lt;$J$5,-J18/(-1/PMT($J$12,$J$5-I17,1,0,1)),"")</f>
+        <v>-21091.601954141814</v>
+      </c>
+      <c r="L18" s="55">
+        <f>IF(I17&lt;$J$5,(J18+K18)*$J$10,"")</f>
+        <v>1637.2081732834545</v>
+      </c>
+      <c r="M18" s="55">
+        <f>IF(I17&lt;$J$5,SUM(J18:L18),"")</f>
+        <v>61608.203531651758</v>
+      </c>
+      <c r="N18" s="5">
+        <f>IF(I17&lt;$J$5,K18/K17-1,"")</f>
+        <v>2.2204460492503131E-16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>IF(B18&lt;$C$5,B18+1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="55">
+        <f>IF(B18&lt;$C$5,F18,"")</f>
+        <v>60891.001396330619</v>
+      </c>
+      <c r="D19" s="55">
+        <f>IF(B18&lt;$C$5,-C19/(-1/PMT($C$12,$C$5-B18,1,0,1)),"")</f>
+        <v>-20599.933309865348</v>
+      </c>
+      <c r="E19" s="55">
+        <f>IF(B18&lt;$C$5,(C19+D19)*$C$10,"")</f>
+        <v>604.36602129697894</v>
+      </c>
+      <c r="F19" s="55">
+        <f>IF(B18&lt;$C$5,SUM(C19:E19),"")</f>
+        <v>40895.434107762245</v>
+      </c>
+      <c r="G19" s="5">
+        <f>IF(B18&lt;$C$5,D19/D18-1,"")</f>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="I19">
+        <f>IF(I18&lt;$J$5,I18+1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="55">
+        <f>IF(I18&lt;$J$5,M18,"")</f>
+        <v>61608.203531651758</v>
+      </c>
+      <c r="K19" s="55">
+        <f>IF(I18&lt;$J$5,-J19/(-1/PMT($J$12,$J$5-I18,1,0,1)),"")</f>
+        <v>-21091.60195414181</v>
+      </c>
+      <c r="L19" s="55">
+        <f>IF(I18&lt;$J$5,(J19+K19)*$J$10,"")</f>
+        <v>1106.1032230660217</v>
+      </c>
+      <c r="M19" s="55">
+        <f>IF(I18&lt;$J$5,SUM(J19:L19),"")</f>
+        <v>41622.704800575972</v>
+      </c>
+      <c r="N19" s="5">
+        <f>IF(I18&lt;$J$5,K19/K18-1,"")</f>
+        <v>-2.2204460492503131E-16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>IF(B19&lt;$C$5,B19+1,"")</f>
+        <v>4</v>
+      </c>
+      <c r="C20" s="55">
+        <f>IF(B19&lt;$C$5,F19,"")</f>
+        <v>40895.434107762245</v>
+      </c>
+      <c r="D20" s="55">
+        <f>IF(B19&lt;$C$5,-C20/(-1/PMT($C$12,$C$5-B19,1,0,1)),"")</f>
+        <v>-20599.933309865348</v>
+      </c>
+      <c r="E20" s="55">
+        <f>IF(B19&lt;$C$5,(C20+D20)*$C$10,"")</f>
+        <v>304.43251196845347</v>
+      </c>
+      <c r="F20" s="55">
+        <f>IF(B19&lt;$C$5,SUM(C20:E20),"")</f>
+        <v>20599.933309865351</v>
+      </c>
+      <c r="G20" s="5">
+        <f>IF(B19&lt;$C$5,D20/D19-1,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>IF(I19&lt;$J$5,I19+1,"")</f>
+        <v>4</v>
+      </c>
+      <c r="J20" s="55">
+        <f>IF(I19&lt;$J$5,M19,"")</f>
+        <v>41622.704800575972</v>
+      </c>
+      <c r="K20" s="55">
+        <f>IF(I19&lt;$J$5,-J20/(-1/PMT($J$12,$J$5-I19,1,0,1)),"")</f>
+        <v>-21091.601954141814</v>
+      </c>
+      <c r="L20" s="55">
+        <f>IF(I19&lt;$J$5,(J20+K20)*$J$10,"")</f>
+        <v>560.49910770765246</v>
+      </c>
+      <c r="M20" s="55">
+        <f>IF(I19&lt;$J$5,SUM(J20:L20),"")</f>
+        <v>21091.60195414181</v>
+      </c>
+      <c r="N20" s="5">
+        <f>IF(I19&lt;$J$5,K20/K19-1,"")</f>
+        <v>2.2204460492503131E-16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>IF(B20&lt;$C$5,B20+1,"")</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="55">
+        <f>IF(B20&lt;$C$5,F20,"")</f>
+        <v>20599.933309865351</v>
+      </c>
+      <c r="D21" s="55">
+        <f>IF(B20&lt;$C$5,-C21/(-1/PMT($C$12,$C$5-B20,1,0,1)),"")</f>
+        <v>-20599.933309865351</v>
+      </c>
+      <c r="E21" s="55">
+        <f>IF(B20&lt;$C$5,(C21+D21)*$C$10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="55">
+        <f>IF(B20&lt;$C$5,SUM(C21:E21),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <f>IF(B20&lt;$C$5,D21/D20-1,"")</f>
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="I21">
+        <f>IF(I20&lt;$J$5,I20+1,"")</f>
+        <v>5</v>
+      </c>
+      <c r="J21" s="55">
+        <f>IF(I20&lt;$J$5,M20,"")</f>
+        <v>21091.60195414181</v>
+      </c>
+      <c r="K21" s="55">
+        <f>IF(I20&lt;$J$5,-J21/(-1/PMT($J$12,$J$5-I20,1,0,1)),"")</f>
+        <v>-21091.60195414181</v>
+      </c>
+      <c r="L21" s="55">
+        <f>IF(I20&lt;$J$5,(J21+K21)*$J$10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="55">
+        <f>IF(I20&lt;$J$5,SUM(J21:L21),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <f>IF(I20&lt;$J$5,K21/K20-1,"")</f>
+        <v>-2.2204460492503131E-16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f>IF(B21&lt;$C$5,B21+1,"")</f>
+        <v/>
+      </c>
+      <c r="C22" s="55" t="str">
+        <f>IF(B21&lt;$C$5,F21,"")</f>
+        <v/>
+      </c>
+      <c r="D22" s="55" t="str">
+        <f>IF(B21&lt;$C$5,-C22/(-1/PMT($C$12,$C$5-B21,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E22" s="55" t="str">
+        <f>IF(B21&lt;$C$5,(C22+D22)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="55" t="str">
+        <f>IF(B21&lt;$C$5,SUM(C22:E22),"")</f>
+        <v/>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f>IF(B21&lt;$C$5,D22/D21-1,"")</f>
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <f>IF(I21&lt;$J$5,I21+1,"")</f>
+        <v/>
+      </c>
+      <c r="J22" s="55" t="str">
+        <f>IF(I21&lt;$J$5,M21,"")</f>
+        <v/>
+      </c>
+      <c r="K22" s="55" t="str">
+        <f>IF(I21&lt;$J$5,-J22/(-1/PMT($J$12,$J$5-I21,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L22" s="55" t="str">
+        <f>IF(I21&lt;$J$5,(J22+K22)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M22" s="55" t="str">
+        <f>IF(I21&lt;$J$5,SUM(J22:L22),"")</f>
+        <v/>
+      </c>
+      <c r="N22" s="5" t="str">
+        <f>IF(I21&lt;$J$5,K22/K21-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <f>IF(B22&lt;$C$5,B22+1,"")</f>
+        <v/>
+      </c>
+      <c r="C23" s="55" t="str">
+        <f>IF(B22&lt;$C$5,F22,"")</f>
+        <v/>
+      </c>
+      <c r="D23" s="55" t="str">
+        <f>IF(B22&lt;$C$5,-C23/(-1/PMT($C$12,$C$5-B22,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E23" s="55" t="str">
+        <f>IF(B22&lt;$C$5,(C23+D23)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="55" t="str">
+        <f>IF(B22&lt;$C$5,SUM(C23:E23),"")</f>
+        <v/>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f>IF(B22&lt;$C$5,D23/D22-1,"")</f>
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <f>IF(I22&lt;$J$5,I22+1,"")</f>
+        <v/>
+      </c>
+      <c r="J23" s="55" t="str">
+        <f>IF(I22&lt;$J$5,M22,"")</f>
+        <v/>
+      </c>
+      <c r="K23" s="55" t="str">
+        <f>IF(I22&lt;$J$5,-J23/(-1/PMT($J$12,$J$5-I22,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L23" s="55" t="str">
+        <f>IF(I22&lt;$J$5,(J23+K23)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M23" s="55" t="str">
+        <f>IF(I22&lt;$J$5,SUM(J23:L23),"")</f>
+        <v/>
+      </c>
+      <c r="N23" s="5" t="str">
+        <f>IF(I22&lt;$J$5,K23/K22-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <f>IF(B23&lt;$C$5,B23+1,"")</f>
+        <v/>
+      </c>
+      <c r="C24" s="55" t="str">
+        <f>IF(B23&lt;$C$5,F23,"")</f>
+        <v/>
+      </c>
+      <c r="D24" s="55" t="str">
+        <f>IF(B23&lt;$C$5,-C24/(-1/PMT($C$12,$C$5-B23,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E24" s="55" t="str">
+        <f>IF(B23&lt;$C$5,(C24+D24)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="55" t="str">
+        <f>IF(B23&lt;$C$5,SUM(C24:E24),"")</f>
+        <v/>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f>IF(B23&lt;$C$5,D24/D23-1,"")</f>
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <f>IF(I23&lt;$J$5,I23+1,"")</f>
+        <v/>
+      </c>
+      <c r="J24" s="55" t="str">
+        <f>IF(I23&lt;$J$5,M23,"")</f>
+        <v/>
+      </c>
+      <c r="K24" s="55" t="str">
+        <f>IF(I23&lt;$J$5,-J24/(-1/PMT($J$12,$J$5-I23,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L24" s="55" t="str">
+        <f>IF(I23&lt;$J$5,(J24+K24)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M24" s="55" t="str">
+        <f>IF(I23&lt;$J$5,SUM(J24:L24),"")</f>
+        <v/>
+      </c>
+      <c r="N24" s="5" t="str">
+        <f>IF(I23&lt;$J$5,K24/K23-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f>IF(B24&lt;$C$5,B24+1,"")</f>
+        <v/>
+      </c>
+      <c r="C25" s="55" t="str">
+        <f>IF(B24&lt;$C$5,F24,"")</f>
+        <v/>
+      </c>
+      <c r="D25" s="55" t="str">
+        <f>IF(B24&lt;$C$5,-C25/(-1/PMT($C$12,$C$5-B24,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E25" s="55" t="str">
+        <f>IF(B24&lt;$C$5,(C25+D25)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="55" t="str">
+        <f>IF(B24&lt;$C$5,SUM(C25:E25),"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="5" t="str">
+        <f>IF(B24&lt;$C$5,D25/D24-1,"")</f>
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <f>IF(I24&lt;$J$5,I24+1,"")</f>
+        <v/>
+      </c>
+      <c r="J25" s="55" t="str">
+        <f>IF(I24&lt;$J$5,M24,"")</f>
+        <v/>
+      </c>
+      <c r="K25" s="55" t="str">
+        <f>IF(I24&lt;$J$5,-J25/(-1/PMT($J$12,$J$5-I24,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L25" s="55" t="str">
+        <f>IF(I24&lt;$J$5,(J25+K25)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M25" s="55" t="str">
+        <f>IF(I24&lt;$J$5,SUM(J25:L25),"")</f>
+        <v/>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f>IF(I24&lt;$J$5,K25/K24-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f>IF(B25&lt;$C$5,B25+1,"")</f>
+        <v/>
+      </c>
+      <c r="C26" s="55" t="str">
+        <f>IF(B25&lt;$C$5,F25,"")</f>
+        <v/>
+      </c>
+      <c r="D26" s="55" t="str">
+        <f>IF(B25&lt;$C$5,-C26/(-1/PMT($C$12,$C$5-B25,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E26" s="55" t="str">
+        <f>IF(B25&lt;$C$5,(C26+D26)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="55" t="str">
+        <f>IF(B25&lt;$C$5,SUM(C26:E26),"")</f>
+        <v/>
+      </c>
+      <c r="G26" s="5" t="str">
+        <f>IF(B25&lt;$C$5,D26/D25-1,"")</f>
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <f>IF(I25&lt;$J$5,I25+1,"")</f>
+        <v/>
+      </c>
+      <c r="J26" s="55" t="str">
+        <f>IF(I25&lt;$J$5,M25,"")</f>
+        <v/>
+      </c>
+      <c r="K26" s="55" t="str">
+        <f>IF(I25&lt;$J$5,-J26/(-1/PMT($J$12,$J$5-I25,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L26" s="55" t="str">
+        <f>IF(I25&lt;$J$5,(J26+K26)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M26" s="55" t="str">
+        <f>IF(I25&lt;$J$5,SUM(J26:L26),"")</f>
+        <v/>
+      </c>
+      <c r="N26" s="5" t="str">
+        <f>IF(I25&lt;$J$5,K26/K25-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <f>IF(B26&lt;$C$5,B26+1,"")</f>
+        <v/>
+      </c>
+      <c r="C27" s="55" t="str">
+        <f>IF(B26&lt;$C$5,F26,"")</f>
+        <v/>
+      </c>
+      <c r="D27" s="55" t="str">
+        <f>IF(B26&lt;$C$5,-C27/(-1/PMT($C$12,$C$5-B26,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E27" s="55" t="str">
+        <f>IF(B26&lt;$C$5,(C27+D27)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F27" s="55" t="str">
+        <f>IF(B26&lt;$C$5,SUM(C27:E27),"")</f>
+        <v/>
+      </c>
+      <c r="G27" s="5" t="str">
+        <f>IF(B26&lt;$C$5,D27/D26-1,"")</f>
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <f>IF(I26&lt;$J$5,I26+1,"")</f>
+        <v/>
+      </c>
+      <c r="J27" s="55" t="str">
+        <f>IF(I26&lt;$J$5,M26,"")</f>
+        <v/>
+      </c>
+      <c r="K27" s="55" t="str">
+        <f>IF(I26&lt;$J$5,-J27/(-1/PMT($J$12,$J$5-I26,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L27" s="55" t="str">
+        <f>IF(I26&lt;$J$5,(J27+K27)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M27" s="55" t="str">
+        <f>IF(I26&lt;$J$5,SUM(J27:L27),"")</f>
+        <v/>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f>IF(I26&lt;$J$5,K27/K26-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
+        <f>IF(B27&lt;$C$5,B27+1,"")</f>
+        <v/>
+      </c>
+      <c r="C28" s="55" t="str">
+        <f>IF(B27&lt;$C$5,F27,"")</f>
+        <v/>
+      </c>
+      <c r="D28" s="55" t="str">
+        <f>IF(B27&lt;$C$5,-C28/(-1/PMT($C$12,$C$5-B27,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E28" s="55" t="str">
+        <f>IF(B27&lt;$C$5,(C28+D28)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F28" s="55" t="str">
+        <f>IF(B27&lt;$C$5,SUM(C28:E28),"")</f>
+        <v/>
+      </c>
+      <c r="G28" s="5" t="str">
+        <f>IF(B27&lt;$C$5,D28/D27-1,"")</f>
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <f>IF(I27&lt;$J$5,I27+1,"")</f>
+        <v/>
+      </c>
+      <c r="J28" s="55" t="str">
+        <f>IF(I27&lt;$J$5,M27,"")</f>
+        <v/>
+      </c>
+      <c r="K28" s="55" t="str">
+        <f>IF(I27&lt;$J$5,-J28/(-1/PMT($J$12,$J$5-I27,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L28" s="55" t="str">
+        <f>IF(I27&lt;$J$5,(J28+K28)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M28" s="55" t="str">
+        <f>IF(I27&lt;$J$5,SUM(J28:L28),"")</f>
+        <v/>
+      </c>
+      <c r="N28" s="5" t="str">
+        <f>IF(I27&lt;$J$5,K28/K27-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="str">
+        <f>IF(B28&lt;$C$5,B28+1,"")</f>
+        <v/>
+      </c>
+      <c r="C29" s="55" t="str">
+        <f>IF(B28&lt;$C$5,F28,"")</f>
+        <v/>
+      </c>
+      <c r="D29" s="55" t="str">
+        <f>IF(B28&lt;$C$5,-C29/(-1/PMT($C$12,$C$5-B28,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E29" s="55" t="str">
+        <f>IF(B28&lt;$C$5,(C29+D29)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F29" s="55" t="str">
+        <f>IF(B28&lt;$C$5,SUM(C29:E29),"")</f>
+        <v/>
+      </c>
+      <c r="G29" s="5" t="str">
+        <f>IF(B28&lt;$C$5,D29/D28-1,"")</f>
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <f>IF(I28&lt;$J$5,I28+1,"")</f>
+        <v/>
+      </c>
+      <c r="J29" s="55" t="str">
+        <f>IF(I28&lt;$J$5,M28,"")</f>
+        <v/>
+      </c>
+      <c r="K29" s="55" t="str">
+        <f>IF(I28&lt;$J$5,-J29/(-1/PMT($J$12,$J$5-I28,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L29" s="55" t="str">
+        <f>IF(I28&lt;$J$5,(J29+K29)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M29" s="55" t="str">
+        <f>IF(I28&lt;$J$5,SUM(J29:L29),"")</f>
+        <v/>
+      </c>
+      <c r="N29" s="5" t="str">
+        <f>IF(I28&lt;$J$5,K29/K28-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" t="str">
+        <f>IF(B29&lt;$C$5,B29+1,"")</f>
+        <v/>
+      </c>
+      <c r="C30" s="55" t="str">
+        <f>IF(B29&lt;$C$5,F29,"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="55" t="str">
+        <f>IF(B29&lt;$C$5,-C30/(-1/PMT($C$12,$C$5-B29,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E30" s="55" t="str">
+        <f>IF(B29&lt;$C$5,(C30+D30)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F30" s="55" t="str">
+        <f>IF(B29&lt;$C$5,SUM(C30:E30),"")</f>
+        <v/>
+      </c>
+      <c r="G30" s="5" t="str">
+        <f>IF(B29&lt;$C$5,D30/D29-1,"")</f>
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <f>IF(I29&lt;$J$5,I29+1,"")</f>
+        <v/>
+      </c>
+      <c r="J30" s="55" t="str">
+        <f>IF(I29&lt;$J$5,M29,"")</f>
+        <v/>
+      </c>
+      <c r="K30" s="55" t="str">
+        <f>IF(I29&lt;$J$5,-J30/(-1/PMT($J$12,$J$5-I29,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L30" s="55" t="str">
+        <f>IF(I29&lt;$J$5,(J30+K30)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M30" s="55" t="str">
+        <f>IF(I29&lt;$J$5,SUM(J30:L30),"")</f>
+        <v/>
+      </c>
+      <c r="N30" s="5" t="str">
+        <f>IF(I29&lt;$J$5,K30/K29-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" t="str">
+        <f>IF(B30&lt;$C$5,B30+1,"")</f>
+        <v/>
+      </c>
+      <c r="C31" s="55" t="str">
+        <f>IF(B30&lt;$C$5,F30,"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="55" t="str">
+        <f>IF(B30&lt;$C$5,-C31/(-1/PMT($C$12,$C$5-B30,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="55" t="str">
+        <f>IF(B30&lt;$C$5,(C31+D31)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F31" s="55" t="str">
+        <f>IF(B30&lt;$C$5,SUM(C31:E31),"")</f>
+        <v/>
+      </c>
+      <c r="G31" s="5" t="str">
+        <f>IF(B30&lt;$C$5,D31/D30-1,"")</f>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f>IF(I30&lt;$J$5,I30+1,"")</f>
+        <v/>
+      </c>
+      <c r="J31" s="55" t="str">
+        <f>IF(I30&lt;$J$5,M30,"")</f>
+        <v/>
+      </c>
+      <c r="K31" s="55" t="str">
+        <f>IF(I30&lt;$J$5,-J31/(-1/PMT($J$12,$J$5-I30,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L31" s="55" t="str">
+        <f>IF(I30&lt;$J$5,(J31+K31)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M31" s="55" t="str">
+        <f>IF(I30&lt;$J$5,SUM(J31:L31),"")</f>
+        <v/>
+      </c>
+      <c r="N31" s="5" t="str">
+        <f>IF(I30&lt;$J$5,K31/K30-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" t="str">
+        <f>IF(B31&lt;$C$5,B31+1,"")</f>
+        <v/>
+      </c>
+      <c r="C32" s="55" t="str">
+        <f>IF(B31&lt;$C$5,F31,"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="55" t="str">
+        <f>IF(B31&lt;$C$5,-C32/(-1/PMT($C$12,$C$5-B31,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E32" s="55" t="str">
+        <f>IF(B31&lt;$C$5,(C32+D32)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F32" s="55" t="str">
+        <f>IF(B31&lt;$C$5,SUM(C32:E32),"")</f>
+        <v/>
+      </c>
+      <c r="G32" s="5" t="str">
+        <f>IF(B31&lt;$C$5,D32/D31-1,"")</f>
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <f>IF(I31&lt;$J$5,I31+1,"")</f>
+        <v/>
+      </c>
+      <c r="J32" s="55" t="str">
+        <f>IF(I31&lt;$J$5,M31,"")</f>
+        <v/>
+      </c>
+      <c r="K32" s="55" t="str">
+        <f>IF(I31&lt;$J$5,-J32/(-1/PMT($J$12,$J$5-I31,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L32" s="55" t="str">
+        <f>IF(I31&lt;$J$5,(J32+K32)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M32" s="55" t="str">
+        <f>IF(I31&lt;$J$5,SUM(J32:L32),"")</f>
+        <v/>
+      </c>
+      <c r="N32" s="5" t="str">
+        <f>IF(I31&lt;$J$5,K32/K31-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="str">
+        <f>IF(B32&lt;$C$5,B32+1,"")</f>
+        <v/>
+      </c>
+      <c r="C33" s="55" t="str">
+        <f>IF(B32&lt;$C$5,F32,"")</f>
+        <v/>
+      </c>
+      <c r="D33" s="55" t="str">
+        <f>IF(B32&lt;$C$5,-C33/(-1/PMT($C$12,$C$5-B32,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E33" s="55" t="str">
+        <f>IF(B32&lt;$C$5,(C33+D33)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F33" s="55" t="str">
+        <f>IF(B32&lt;$C$5,SUM(C33:E33),"")</f>
+        <v/>
+      </c>
+      <c r="G33" s="5" t="str">
+        <f>IF(B32&lt;$C$5,D33/D32-1,"")</f>
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <f>IF(I32&lt;$J$5,I32+1,"")</f>
+        <v/>
+      </c>
+      <c r="J33" s="55" t="str">
+        <f>IF(I32&lt;$J$5,M32,"")</f>
+        <v/>
+      </c>
+      <c r="K33" s="55" t="str">
+        <f>IF(I32&lt;$J$5,-J33/(-1/PMT($J$12,$J$5-I32,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L33" s="55" t="str">
+        <f>IF(I32&lt;$J$5,(J33+K33)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M33" s="55" t="str">
+        <f>IF(I32&lt;$J$5,SUM(J33:L33),"")</f>
+        <v/>
+      </c>
+      <c r="N33" s="5" t="str">
+        <f>IF(I32&lt;$J$5,K33/K32-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" t="str">
+        <f>IF(B33&lt;$C$5,B33+1,"")</f>
+        <v/>
+      </c>
+      <c r="C34" s="55" t="str">
+        <f>IF(B33&lt;$C$5,F33,"")</f>
+        <v/>
+      </c>
+      <c r="D34" s="55" t="str">
+        <f>IF(B33&lt;$C$5,-C34/(-1/PMT($C$12,$C$5-B33,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E34" s="55" t="str">
+        <f>IF(B33&lt;$C$5,(C34+D34)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F34" s="55" t="str">
+        <f>IF(B33&lt;$C$5,SUM(C34:E34),"")</f>
+        <v/>
+      </c>
+      <c r="G34" s="5" t="str">
+        <f>IF(B33&lt;$C$5,D34/D33-1,"")</f>
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <f>IF(I33&lt;$J$5,I33+1,"")</f>
+        <v/>
+      </c>
+      <c r="J34" s="55" t="str">
+        <f>IF(I33&lt;$J$5,M33,"")</f>
+        <v/>
+      </c>
+      <c r="K34" s="55" t="str">
+        <f>IF(I33&lt;$J$5,-J34/(-1/PMT($J$12,$J$5-I33,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L34" s="55" t="str">
+        <f>IF(I33&lt;$J$5,(J34+K34)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M34" s="55" t="str">
+        <f>IF(I33&lt;$J$5,SUM(J34:L34),"")</f>
+        <v/>
+      </c>
+      <c r="N34" s="5" t="str">
+        <f>IF(I33&lt;$J$5,K34/K33-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="str">
+        <f>IF(B34&lt;$C$5,B34+1,"")</f>
+        <v/>
+      </c>
+      <c r="C35" s="55" t="str">
+        <f>IF(B34&lt;$C$5,F34,"")</f>
+        <v/>
+      </c>
+      <c r="D35" s="55" t="str">
+        <f>IF(B34&lt;$C$5,-C35/(-1/PMT($C$12,$C$5-B34,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E35" s="55" t="str">
+        <f>IF(B34&lt;$C$5,(C35+D35)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F35" s="55" t="str">
+        <f>IF(B34&lt;$C$5,SUM(C35:E35),"")</f>
+        <v/>
+      </c>
+      <c r="G35" s="5" t="str">
+        <f>IF(B34&lt;$C$5,D35/D34-1,"")</f>
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <f>IF(I34&lt;$J$5,I34+1,"")</f>
+        <v/>
+      </c>
+      <c r="J35" s="55" t="str">
+        <f>IF(I34&lt;$J$5,M34,"")</f>
+        <v/>
+      </c>
+      <c r="K35" s="55" t="str">
+        <f>IF(I34&lt;$J$5,-J35/(-1/PMT($J$12,$J$5-I34,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L35" s="55" t="str">
+        <f>IF(I34&lt;$J$5,(J35+K35)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M35" s="55" t="str">
+        <f>IF(I34&lt;$J$5,SUM(J35:L35),"")</f>
+        <v/>
+      </c>
+      <c r="N35" s="5" t="str">
+        <f>IF(I34&lt;$J$5,K35/K34-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" t="str">
+        <f>IF(B35&lt;$C$5,B35+1,"")</f>
+        <v/>
+      </c>
+      <c r="C36" s="55" t="str">
+        <f>IF(B35&lt;$C$5,F35,"")</f>
+        <v/>
+      </c>
+      <c r="D36" s="55" t="str">
+        <f>IF(B35&lt;$C$5,-C36/(-1/PMT($C$12,$C$5-B35,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E36" s="55" t="str">
+        <f>IF(B35&lt;$C$5,(C36+D36)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F36" s="55" t="str">
+        <f>IF(B35&lt;$C$5,SUM(C36:E36),"")</f>
+        <v/>
+      </c>
+      <c r="G36" s="5" t="str">
+        <f>IF(B35&lt;$C$5,D36/D35-1,"")</f>
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <f>IF(I35&lt;$J$5,I35+1,"")</f>
+        <v/>
+      </c>
+      <c r="J36" s="55" t="str">
+        <f>IF(I35&lt;$J$5,M35,"")</f>
+        <v/>
+      </c>
+      <c r="K36" s="55" t="str">
+        <f>IF(I35&lt;$J$5,-J36/(-1/PMT($J$12,$J$5-I35,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L36" s="55" t="str">
+        <f>IF(I35&lt;$J$5,(J36+K36)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M36" s="55" t="str">
+        <f>IF(I35&lt;$J$5,SUM(J36:L36),"")</f>
+        <v/>
+      </c>
+      <c r="N36" s="5" t="str">
+        <f>IF(I35&lt;$J$5,K36/K35-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="str">
+        <f>IF(B36&lt;$C$5,B36+1,"")</f>
+        <v/>
+      </c>
+      <c r="C37" s="55" t="str">
+        <f>IF(B36&lt;$C$5,F36,"")</f>
+        <v/>
+      </c>
+      <c r="D37" s="55" t="str">
+        <f>IF(B36&lt;$C$5,-C37/(-1/PMT($C$12,$C$5-B36,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E37" s="55" t="str">
+        <f>IF(B36&lt;$C$5,(C37+D37)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F37" s="55" t="str">
+        <f>IF(B36&lt;$C$5,SUM(C37:E37),"")</f>
+        <v/>
+      </c>
+      <c r="G37" s="5" t="str">
+        <f>IF(B36&lt;$C$5,D37/D36-1,"")</f>
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <f>IF(I36&lt;$J$5,I36+1,"")</f>
+        <v/>
+      </c>
+      <c r="J37" s="55" t="str">
+        <f>IF(I36&lt;$J$5,M36,"")</f>
+        <v/>
+      </c>
+      <c r="K37" s="55" t="str">
+        <f>IF(I36&lt;$J$5,-J37/(-1/PMT($J$12,$J$5-I36,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L37" s="55" t="str">
+        <f>IF(I36&lt;$J$5,(J37+K37)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M37" s="55" t="str">
+        <f>IF(I36&lt;$J$5,SUM(J37:L37),"")</f>
+        <v/>
+      </c>
+      <c r="N37" s="5" t="str">
+        <f>IF(I36&lt;$J$5,K37/K36-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="str">
+        <f>IF(B37&lt;$C$5,B37+1,"")</f>
+        <v/>
+      </c>
+      <c r="C38" s="55" t="str">
+        <f>IF(B37&lt;$C$5,F37,"")</f>
+        <v/>
+      </c>
+      <c r="D38" s="55" t="str">
+        <f>IF(B37&lt;$C$5,-C38/(-1/PMT($C$12,$C$5-B37,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E38" s="55" t="str">
+        <f>IF(B37&lt;$C$5,(C38+D38)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F38" s="55" t="str">
+        <f>IF(B37&lt;$C$5,SUM(C38:E38),"")</f>
+        <v/>
+      </c>
+      <c r="G38" s="5" t="str">
+        <f>IF(B37&lt;$C$5,D38/D37-1,"")</f>
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <f>IF(I37&lt;$J$5,I37+1,"")</f>
+        <v/>
+      </c>
+      <c r="J38" s="55" t="str">
+        <f>IF(I37&lt;$J$5,M37,"")</f>
+        <v/>
+      </c>
+      <c r="K38" s="55" t="str">
+        <f>IF(I37&lt;$J$5,-J38/(-1/PMT($J$12,$J$5-I37,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L38" s="55" t="str">
+        <f>IF(I37&lt;$J$5,(J38+K38)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M38" s="55" t="str">
+        <f>IF(I37&lt;$J$5,SUM(J38:L38),"")</f>
+        <v/>
+      </c>
+      <c r="N38" s="5" t="str">
+        <f>IF(I37&lt;$J$5,K38/K37-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="str">
+        <f>IF(B38&lt;$C$5,B38+1,"")</f>
+        <v/>
+      </c>
+      <c r="C39" s="55" t="str">
+        <f>IF(B38&lt;$C$5,F38,"")</f>
+        <v/>
+      </c>
+      <c r="D39" s="55" t="str">
+        <f>IF(B38&lt;$C$5,-C39/(-1/PMT($C$12,$C$5-B38,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E39" s="55" t="str">
+        <f>IF(B38&lt;$C$5,(C39+D39)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F39" s="55" t="str">
+        <f>IF(B38&lt;$C$5,SUM(C39:E39),"")</f>
+        <v/>
+      </c>
+      <c r="G39" s="5" t="str">
+        <f>IF(B38&lt;$C$5,D39/D38-1,"")</f>
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <f>IF(I38&lt;$J$5,I38+1,"")</f>
+        <v/>
+      </c>
+      <c r="J39" s="55" t="str">
+        <f>IF(I38&lt;$J$5,M38,"")</f>
+        <v/>
+      </c>
+      <c r="K39" s="55" t="str">
+        <f>IF(I38&lt;$J$5,-J39/(-1/PMT($J$12,$J$5-I38,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L39" s="55" t="str">
+        <f>IF(I38&lt;$J$5,(J39+K39)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M39" s="55" t="str">
+        <f>IF(I38&lt;$J$5,SUM(J39:L39),"")</f>
+        <v/>
+      </c>
+      <c r="N39" s="5" t="str">
+        <f>IF(I38&lt;$J$5,K39/K38-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <f>IF(B39&lt;$C$5,B39+1,"")</f>
+        <v/>
+      </c>
+      <c r="C40" s="55" t="str">
+        <f>IF(B39&lt;$C$5,F39,"")</f>
+        <v/>
+      </c>
+      <c r="D40" s="55" t="str">
+        <f>IF(B39&lt;$C$5,-C40/(-1/PMT($C$12,$C$5-B39,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E40" s="55" t="str">
+        <f>IF(B39&lt;$C$5,(C40+D40)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F40" s="55" t="str">
+        <f>IF(B39&lt;$C$5,SUM(C40:E40),"")</f>
+        <v/>
+      </c>
+      <c r="G40" s="5" t="str">
+        <f>IF(B39&lt;$C$5,D40/D39-1,"")</f>
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <f>IF(I39&lt;$J$5,I39+1,"")</f>
+        <v/>
+      </c>
+      <c r="J40" s="55" t="str">
+        <f>IF(I39&lt;$J$5,M39,"")</f>
+        <v/>
+      </c>
+      <c r="K40" s="55" t="str">
+        <f>IF(I39&lt;$J$5,-J40/(-1/PMT($J$12,$J$5-I39,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L40" s="55" t="str">
+        <f>IF(I39&lt;$J$5,(J40+K40)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M40" s="55" t="str">
+        <f>IF(I39&lt;$J$5,SUM(J40:L40),"")</f>
+        <v/>
+      </c>
+      <c r="N40" s="5" t="str">
+        <f>IF(I39&lt;$J$5,K40/K39-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" t="str">
+        <f>IF(B40&lt;$C$5,B40+1,"")</f>
+        <v/>
+      </c>
+      <c r="C41" s="55" t="str">
+        <f>IF(B40&lt;$C$5,F40,"")</f>
+        <v/>
+      </c>
+      <c r="D41" s="55" t="str">
+        <f>IF(B40&lt;$C$5,-C41/(-1/PMT($C$12,$C$5-B40,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E41" s="55" t="str">
+        <f>IF(B40&lt;$C$5,(C41+D41)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F41" s="55" t="str">
+        <f>IF(B40&lt;$C$5,SUM(C41:E41),"")</f>
+        <v/>
+      </c>
+      <c r="G41" s="5" t="str">
+        <f>IF(B40&lt;$C$5,D41/D40-1,"")</f>
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <f>IF(I40&lt;$J$5,I40+1,"")</f>
+        <v/>
+      </c>
+      <c r="J41" s="55" t="str">
+        <f>IF(I40&lt;$J$5,M40,"")</f>
+        <v/>
+      </c>
+      <c r="K41" s="55" t="str">
+        <f>IF(I40&lt;$J$5,-J41/(-1/PMT($J$12,$J$5-I40,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L41" s="55" t="str">
+        <f>IF(I40&lt;$J$5,(J41+K41)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M41" s="55" t="str">
+        <f>IF(I40&lt;$J$5,SUM(J41:L41),"")</f>
+        <v/>
+      </c>
+      <c r="N41" s="5" t="str">
+        <f>IF(I40&lt;$J$5,K41/K40-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="str">
+        <f>IF(B41&lt;$C$5,B41+1,"")</f>
+        <v/>
+      </c>
+      <c r="C42" s="55" t="str">
+        <f>IF(B41&lt;$C$5,F41,"")</f>
+        <v/>
+      </c>
+      <c r="D42" s="55" t="str">
+        <f>IF(B41&lt;$C$5,-C42/(-1/PMT($C$12,$C$5-B41,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E42" s="55" t="str">
+        <f>IF(B41&lt;$C$5,(C42+D42)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F42" s="55" t="str">
+        <f>IF(B41&lt;$C$5,SUM(C42:E42),"")</f>
+        <v/>
+      </c>
+      <c r="G42" s="5" t="str">
+        <f>IF(B41&lt;$C$5,D42/D41-1,"")</f>
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <f>IF(I41&lt;$J$5,I41+1,"")</f>
+        <v/>
+      </c>
+      <c r="J42" s="55" t="str">
+        <f>IF(I41&lt;$J$5,M41,"")</f>
+        <v/>
+      </c>
+      <c r="K42" s="55" t="str">
+        <f>IF(I41&lt;$J$5,-J42/(-1/PMT($J$12,$J$5-I41,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L42" s="55" t="str">
+        <f>IF(I41&lt;$J$5,(J42+K42)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M42" s="55" t="str">
+        <f>IF(I41&lt;$J$5,SUM(J42:L42),"")</f>
+        <v/>
+      </c>
+      <c r="N42" s="5" t="str">
+        <f>IF(I41&lt;$J$5,K42/K41-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="str">
+        <f>IF(B42&lt;$C$5,B42+1,"")</f>
+        <v/>
+      </c>
+      <c r="C43" s="55" t="str">
+        <f>IF(B42&lt;$C$5,F42,"")</f>
+        <v/>
+      </c>
+      <c r="D43" s="55" t="str">
+        <f>IF(B42&lt;$C$5,-C43/(-1/PMT($C$12,$C$5-B42,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E43" s="55" t="str">
+        <f>IF(B42&lt;$C$5,(C43+D43)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F43" s="55" t="str">
+        <f>IF(B42&lt;$C$5,SUM(C43:E43),"")</f>
+        <v/>
+      </c>
+      <c r="G43" s="5" t="str">
+        <f>IF(B42&lt;$C$5,D43/D42-1,"")</f>
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <f>IF(I42&lt;$J$5,I42+1,"")</f>
+        <v/>
+      </c>
+      <c r="J43" s="55" t="str">
+        <f>IF(I42&lt;$J$5,M42,"")</f>
+        <v/>
+      </c>
+      <c r="K43" s="55" t="str">
+        <f>IF(I42&lt;$J$5,-J43/(-1/PMT($J$12,$J$5-I42,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L43" s="55" t="str">
+        <f>IF(I42&lt;$J$5,(J43+K43)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M43" s="55" t="str">
+        <f>IF(I42&lt;$J$5,SUM(J43:L43),"")</f>
+        <v/>
+      </c>
+      <c r="N43" s="5" t="str">
+        <f>IF(I42&lt;$J$5,K43/K42-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="str">
+        <f>IF(B43&lt;$C$5,B43+1,"")</f>
+        <v/>
+      </c>
+      <c r="C44" s="55" t="str">
+        <f>IF(B43&lt;$C$5,F43,"")</f>
+        <v/>
+      </c>
+      <c r="D44" s="55" t="str">
+        <f>IF(B43&lt;$C$5,-C44/(-1/PMT($C$12,$C$5-B43,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E44" s="55" t="str">
+        <f>IF(B43&lt;$C$5,(C44+D44)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F44" s="55" t="str">
+        <f>IF(B43&lt;$C$5,SUM(C44:E44),"")</f>
+        <v/>
+      </c>
+      <c r="G44" s="5" t="str">
+        <f>IF(B43&lt;$C$5,D44/D43-1,"")</f>
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <f>IF(I43&lt;$J$5,I43+1,"")</f>
+        <v/>
+      </c>
+      <c r="J44" s="55" t="str">
+        <f>IF(I43&lt;$J$5,M43,"")</f>
+        <v/>
+      </c>
+      <c r="K44" s="55" t="str">
+        <f>IF(I43&lt;$J$5,-J44/(-1/PMT($J$12,$J$5-I43,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L44" s="55" t="str">
+        <f>IF(I43&lt;$J$5,(J44+K44)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M44" s="55" t="str">
+        <f>IF(I43&lt;$J$5,SUM(J44:L44),"")</f>
+        <v/>
+      </c>
+      <c r="N44" s="5" t="str">
+        <f>IF(I43&lt;$J$5,K44/K43-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="str">
+        <f>IF(B44&lt;$C$5,B44+1,"")</f>
+        <v/>
+      </c>
+      <c r="C45" s="55" t="str">
+        <f>IF(B44&lt;$C$5,F44,"")</f>
+        <v/>
+      </c>
+      <c r="D45" s="55" t="str">
+        <f>IF(B44&lt;$C$5,-C45/(-1/PMT($C$12,$C$5-B44,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E45" s="55" t="str">
+        <f>IF(B44&lt;$C$5,(C45+D45)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F45" s="55" t="str">
+        <f>IF(B44&lt;$C$5,SUM(C45:E45),"")</f>
+        <v/>
+      </c>
+      <c r="G45" s="5" t="str">
+        <f>IF(B44&lt;$C$5,D45/D44-1,"")</f>
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <f>IF(I44&lt;$J$5,I44+1,"")</f>
+        <v/>
+      </c>
+      <c r="J45" s="55" t="str">
+        <f>IF(I44&lt;$J$5,M44,"")</f>
+        <v/>
+      </c>
+      <c r="K45" s="55" t="str">
+        <f>IF(I44&lt;$J$5,-J45/(-1/PMT($J$12,$J$5-I44,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L45" s="55" t="str">
+        <f>IF(I44&lt;$J$5,(J45+K45)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M45" s="55" t="str">
+        <f>IF(I44&lt;$J$5,SUM(J45:L45),"")</f>
+        <v/>
+      </c>
+      <c r="N45" s="5" t="str">
+        <f>IF(I44&lt;$J$5,K45/K44-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="str">
+        <f>IF(B45&lt;$C$5,B45+1,"")</f>
+        <v/>
+      </c>
+      <c r="C46" s="55" t="str">
+        <f>IF(B45&lt;$C$5,F45,"")</f>
+        <v/>
+      </c>
+      <c r="D46" s="55" t="str">
+        <f>IF(B45&lt;$C$5,-C46/(-1/PMT($C$12,$C$5-B45,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E46" s="55" t="str">
+        <f>IF(B45&lt;$C$5,(C46+D46)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F46" s="55" t="str">
+        <f>IF(B45&lt;$C$5,SUM(C46:E46),"")</f>
+        <v/>
+      </c>
+      <c r="G46" s="5" t="str">
+        <f>IF(B45&lt;$C$5,D46/D45-1,"")</f>
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <f>IF(I45&lt;$J$5,I45+1,"")</f>
+        <v/>
+      </c>
+      <c r="J46" s="55" t="str">
+        <f>IF(I45&lt;$J$5,M45,"")</f>
+        <v/>
+      </c>
+      <c r="K46" s="55" t="str">
+        <f>IF(I45&lt;$J$5,-J46/(-1/PMT($J$12,$J$5-I45,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L46" s="55" t="str">
+        <f>IF(I45&lt;$J$5,(J46+K46)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M46" s="55" t="str">
+        <f>IF(I45&lt;$J$5,SUM(J46:L46),"")</f>
+        <v/>
+      </c>
+      <c r="N46" s="5" t="str">
+        <f>IF(I45&lt;$J$5,K46/K45-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="str">
+        <f>IF(B46&lt;$C$5,B46+1,"")</f>
+        <v/>
+      </c>
+      <c r="C47" s="55" t="str">
+        <f>IF(B46&lt;$C$5,F46,"")</f>
+        <v/>
+      </c>
+      <c r="D47" s="55" t="str">
+        <f>IF(B46&lt;$C$5,-C47/(-1/PMT($C$12,$C$5-B46,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E47" s="55" t="str">
+        <f>IF(B46&lt;$C$5,(C47+D47)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F47" s="55" t="str">
+        <f>IF(B46&lt;$C$5,SUM(C47:E47),"")</f>
+        <v/>
+      </c>
+      <c r="G47" s="5" t="str">
+        <f>IF(B46&lt;$C$5,D47/D46-1,"")</f>
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <f>IF(I46&lt;$J$5,I46+1,"")</f>
+        <v/>
+      </c>
+      <c r="J47" s="55" t="str">
+        <f>IF(I46&lt;$J$5,M46,"")</f>
+        <v/>
+      </c>
+      <c r="K47" s="55" t="str">
+        <f>IF(I46&lt;$J$5,-J47/(-1/PMT($J$12,$J$5-I46,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L47" s="55" t="str">
+        <f>IF(I46&lt;$J$5,(J47+K47)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M47" s="55" t="str">
+        <f>IF(I46&lt;$J$5,SUM(J47:L47),"")</f>
+        <v/>
+      </c>
+      <c r="N47" s="5" t="str">
+        <f>IF(I46&lt;$J$5,K47/K46-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="str">
+        <f>IF(B47&lt;$C$5,B47+1,"")</f>
+        <v/>
+      </c>
+      <c r="C48" s="55" t="str">
+        <f>IF(B47&lt;$C$5,F47,"")</f>
+        <v/>
+      </c>
+      <c r="D48" s="55" t="str">
+        <f>IF(B47&lt;$C$5,-C48/(-1/PMT($C$12,$C$5-B47,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E48" s="55" t="str">
+        <f>IF(B47&lt;$C$5,(C48+D48)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F48" s="55" t="str">
+        <f>IF(B47&lt;$C$5,SUM(C48:E48),"")</f>
+        <v/>
+      </c>
+      <c r="G48" s="5" t="str">
+        <f>IF(B47&lt;$C$5,D48/D47-1,"")</f>
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <f>IF(I47&lt;$J$5,I47+1,"")</f>
+        <v/>
+      </c>
+      <c r="J48" s="55" t="str">
+        <f>IF(I47&lt;$J$5,M47,"")</f>
+        <v/>
+      </c>
+      <c r="K48" s="55" t="str">
+        <f>IF(I47&lt;$J$5,-J48/(-1/PMT($J$12,$J$5-I47,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L48" s="55" t="str">
+        <f>IF(I47&lt;$J$5,(J48+K48)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M48" s="55" t="str">
+        <f>IF(I47&lt;$J$5,SUM(J48:L48),"")</f>
+        <v/>
+      </c>
+      <c r="N48" s="5" t="str">
+        <f>IF(I47&lt;$J$5,K48/K47-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" t="str">
+        <f>IF(B48&lt;$C$5,B48+1,"")</f>
+        <v/>
+      </c>
+      <c r="C49" s="55" t="str">
+        <f>IF(B48&lt;$C$5,F48,"")</f>
+        <v/>
+      </c>
+      <c r="D49" s="55" t="str">
+        <f>IF(B48&lt;$C$5,-C49/(-1/PMT($C$12,$C$5-B48,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E49" s="55" t="str">
+        <f>IF(B48&lt;$C$5,(C49+D49)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F49" s="55" t="str">
+        <f>IF(B48&lt;$C$5,SUM(C49:E49),"")</f>
+        <v/>
+      </c>
+      <c r="G49" s="5" t="str">
+        <f>IF(B48&lt;$C$5,D49/D48-1,"")</f>
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <f>IF(I48&lt;$J$5,I48+1,"")</f>
+        <v/>
+      </c>
+      <c r="J49" s="55" t="str">
+        <f>IF(I48&lt;$J$5,M48,"")</f>
+        <v/>
+      </c>
+      <c r="K49" s="55" t="str">
+        <f>IF(I48&lt;$J$5,-J49/(-1/PMT($J$12,$J$5-I48,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L49" s="55" t="str">
+        <f>IF(I48&lt;$J$5,(J49+K49)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M49" s="55" t="str">
+        <f>IF(I48&lt;$J$5,SUM(J49:L49),"")</f>
+        <v/>
+      </c>
+      <c r="N49" s="5" t="str">
+        <f>IF(I48&lt;$J$5,K49/K48-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" t="str">
+        <f>IF(B49&lt;$C$5,B49+1,"")</f>
+        <v/>
+      </c>
+      <c r="C50" s="55" t="str">
+        <f>IF(B49&lt;$C$5,F49,"")</f>
+        <v/>
+      </c>
+      <c r="D50" s="55" t="str">
+        <f>IF(B49&lt;$C$5,-C50/(-1/PMT($C$12,$C$5-B49,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E50" s="55" t="str">
+        <f>IF(B49&lt;$C$5,(C50+D50)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F50" s="55" t="str">
+        <f>IF(B49&lt;$C$5,SUM(C50:E50),"")</f>
+        <v/>
+      </c>
+      <c r="G50" s="5" t="str">
+        <f>IF(B49&lt;$C$5,D50/D49-1,"")</f>
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <f>IF(I49&lt;$J$5,I49+1,"")</f>
+        <v/>
+      </c>
+      <c r="J50" s="55" t="str">
+        <f>IF(I49&lt;$J$5,M49,"")</f>
+        <v/>
+      </c>
+      <c r="K50" s="55" t="str">
+        <f>IF(I49&lt;$J$5,-J50/(-1/PMT($J$12,$J$5-I49,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L50" s="55" t="str">
+        <f>IF(I49&lt;$J$5,(J50+K50)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M50" s="55" t="str">
+        <f>IF(I49&lt;$J$5,SUM(J50:L50),"")</f>
+        <v/>
+      </c>
+      <c r="N50" s="5" t="str">
+        <f>IF(I49&lt;$J$5,K50/K49-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" t="str">
+        <f>IF(B50&lt;$C$5,B50+1,"")</f>
+        <v/>
+      </c>
+      <c r="C51" s="55" t="str">
+        <f>IF(B50&lt;$C$5,F50,"")</f>
+        <v/>
+      </c>
+      <c r="D51" s="55" t="str">
+        <f>IF(B50&lt;$C$5,-C51/(-1/PMT($C$12,$C$5-B50,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E51" s="55" t="str">
+        <f>IF(B50&lt;$C$5,(C51+D51)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F51" s="55" t="str">
+        <f>IF(B50&lt;$C$5,SUM(C51:E51),"")</f>
+        <v/>
+      </c>
+      <c r="G51" s="5" t="str">
+        <f>IF(B50&lt;$C$5,D51/D50-1,"")</f>
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <f>IF(I50&lt;$J$5,I50+1,"")</f>
+        <v/>
+      </c>
+      <c r="J51" s="55" t="str">
+        <f>IF(I50&lt;$J$5,M50,"")</f>
+        <v/>
+      </c>
+      <c r="K51" s="55" t="str">
+        <f>IF(I50&lt;$J$5,-J51/(-1/PMT($J$12,$J$5-I50,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L51" s="55" t="str">
+        <f>IF(I50&lt;$J$5,(J51+K51)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M51" s="55" t="str">
+        <f>IF(I50&lt;$J$5,SUM(J51:L51),"")</f>
+        <v/>
+      </c>
+      <c r="N51" s="5" t="str">
+        <f>IF(I50&lt;$J$5,K51/K50-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" t="str">
+        <f>IF(B51&lt;$C$5,B51+1,"")</f>
+        <v/>
+      </c>
+      <c r="C52" s="55" t="str">
+        <f>IF(B51&lt;$C$5,F51,"")</f>
+        <v/>
+      </c>
+      <c r="D52" s="55" t="str">
+        <f>IF(B51&lt;$C$5,-C52/(-1/PMT($C$12,$C$5-B51,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E52" s="55" t="str">
+        <f>IF(B51&lt;$C$5,(C52+D52)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F52" s="55" t="str">
+        <f>IF(B51&lt;$C$5,SUM(C52:E52),"")</f>
+        <v/>
+      </c>
+      <c r="G52" s="5" t="str">
+        <f>IF(B51&lt;$C$5,D52/D51-1,"")</f>
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <f>IF(I51&lt;$J$5,I51+1,"")</f>
+        <v/>
+      </c>
+      <c r="J52" s="55" t="str">
+        <f>IF(I51&lt;$J$5,M51,"")</f>
+        <v/>
+      </c>
+      <c r="K52" s="55" t="str">
+        <f>IF(I51&lt;$J$5,-J52/(-1/PMT($J$12,$J$5-I51,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L52" s="55" t="str">
+        <f>IF(I51&lt;$J$5,(J52+K52)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M52" s="55" t="str">
+        <f>IF(I51&lt;$J$5,SUM(J52:L52),"")</f>
+        <v/>
+      </c>
+      <c r="N52" s="5" t="str">
+        <f>IF(I51&lt;$J$5,K52/K51-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="str">
+        <f>IF(B52&lt;$C$5,B52+1,"")</f>
+        <v/>
+      </c>
+      <c r="C53" s="55" t="str">
+        <f>IF(B52&lt;$C$5,F52,"")</f>
+        <v/>
+      </c>
+      <c r="D53" s="55" t="str">
+        <f>IF(B52&lt;$C$5,-C53/(-1/PMT($C$12,$C$5-B52,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E53" s="55" t="str">
+        <f>IF(B52&lt;$C$5,(C53+D53)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F53" s="55" t="str">
+        <f>IF(B52&lt;$C$5,SUM(C53:E53),"")</f>
+        <v/>
+      </c>
+      <c r="G53" s="5" t="str">
+        <f>IF(B52&lt;$C$5,D53/D52-1,"")</f>
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <f>IF(I52&lt;$J$5,I52+1,"")</f>
+        <v/>
+      </c>
+      <c r="J53" s="55" t="str">
+        <f>IF(I52&lt;$J$5,M52,"")</f>
+        <v/>
+      </c>
+      <c r="K53" s="55" t="str">
+        <f>IF(I52&lt;$J$5,-J53/(-1/PMT($J$12,$J$5-I52,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L53" s="55" t="str">
+        <f>IF(I52&lt;$J$5,(J53+K53)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M53" s="55" t="str">
+        <f>IF(I52&lt;$J$5,SUM(J53:L53),"")</f>
+        <v/>
+      </c>
+      <c r="N53" s="5" t="str">
+        <f>IF(I52&lt;$J$5,K53/K52-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" t="str">
+        <f>IF(B53&lt;$C$5,B53+1,"")</f>
+        <v/>
+      </c>
+      <c r="C54" s="55" t="str">
+        <f>IF(B53&lt;$C$5,F53,"")</f>
+        <v/>
+      </c>
+      <c r="D54" s="55" t="str">
+        <f>IF(B53&lt;$C$5,-C54/(-1/PMT($C$12,$C$5-B53,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E54" s="55" t="str">
+        <f>IF(B53&lt;$C$5,(C54+D54)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F54" s="55" t="str">
+        <f>IF(B53&lt;$C$5,SUM(C54:E54),"")</f>
+        <v/>
+      </c>
+      <c r="G54" s="5" t="str">
+        <f>IF(B53&lt;$C$5,D54/D53-1,"")</f>
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <f>IF(I53&lt;$J$5,I53+1,"")</f>
+        <v/>
+      </c>
+      <c r="J54" s="55" t="str">
+        <f>IF(I53&lt;$J$5,M53,"")</f>
+        <v/>
+      </c>
+      <c r="K54" s="55" t="str">
+        <f>IF(I53&lt;$J$5,-J54/(-1/PMT($J$12,$J$5-I53,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L54" s="55" t="str">
+        <f>IF(I53&lt;$J$5,(J54+K54)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M54" s="55" t="str">
+        <f>IF(I53&lt;$J$5,SUM(J54:L54),"")</f>
+        <v/>
+      </c>
+      <c r="N54" s="5" t="str">
+        <f>IF(I53&lt;$J$5,K54/K53-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" t="str">
+        <f>IF(B54&lt;$C$5,B54+1,"")</f>
+        <v/>
+      </c>
+      <c r="C55" s="55" t="str">
+        <f>IF(B54&lt;$C$5,F54,"")</f>
+        <v/>
+      </c>
+      <c r="D55" s="55" t="str">
+        <f>IF(B54&lt;$C$5,-C55/(-1/PMT($C$12,$C$5-B54,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E55" s="55" t="str">
+        <f>IF(B54&lt;$C$5,(C55+D55)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F55" s="55" t="str">
+        <f>IF(B54&lt;$C$5,SUM(C55:E55),"")</f>
+        <v/>
+      </c>
+      <c r="G55" s="5" t="str">
+        <f>IF(B54&lt;$C$5,D55/D54-1,"")</f>
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <f>IF(I54&lt;$J$5,I54+1,"")</f>
+        <v/>
+      </c>
+      <c r="J55" s="55" t="str">
+        <f>IF(I54&lt;$J$5,M54,"")</f>
+        <v/>
+      </c>
+      <c r="K55" s="55" t="str">
+        <f>IF(I54&lt;$J$5,-J55/(-1/PMT($J$12,$J$5-I54,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L55" s="55" t="str">
+        <f>IF(I54&lt;$J$5,(J55+K55)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M55" s="55" t="str">
+        <f>IF(I54&lt;$J$5,SUM(J55:L55),"")</f>
+        <v/>
+      </c>
+      <c r="N55" s="5" t="str">
+        <f>IF(I54&lt;$J$5,K55/K54-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" t="str">
+        <f>IF(B55&lt;$C$5,B55+1,"")</f>
+        <v/>
+      </c>
+      <c r="C56" s="55" t="str">
+        <f>IF(B55&lt;$C$5,F55,"")</f>
+        <v/>
+      </c>
+      <c r="D56" s="55" t="str">
+        <f>IF(B55&lt;$C$5,-C56/(-1/PMT($C$12,$C$5-B55,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E56" s="55" t="str">
+        <f>IF(B55&lt;$C$5,(C56+D56)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F56" s="55" t="str">
+        <f>IF(B55&lt;$C$5,SUM(C56:E56),"")</f>
+        <v/>
+      </c>
+      <c r="G56" s="5" t="str">
+        <f>IF(B55&lt;$C$5,D56/D55-1,"")</f>
+        <v/>
+      </c>
+      <c r="I56" t="str">
+        <f>IF(I55&lt;$J$5,I55+1,"")</f>
+        <v/>
+      </c>
+      <c r="J56" s="55" t="str">
+        <f>IF(I55&lt;$J$5,M55,"")</f>
+        <v/>
+      </c>
+      <c r="K56" s="55" t="str">
+        <f>IF(I55&lt;$J$5,-J56/(-1/PMT($J$12,$J$5-I55,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L56" s="55" t="str">
+        <f>IF(I55&lt;$J$5,(J56+K56)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M56" s="55" t="str">
+        <f>IF(I55&lt;$J$5,SUM(J56:L56),"")</f>
+        <v/>
+      </c>
+      <c r="N56" s="5" t="str">
+        <f>IF(I55&lt;$J$5,K56/K55-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" t="str">
+        <f>IF(B56&lt;$C$5,B56+1,"")</f>
+        <v/>
+      </c>
+      <c r="C57" s="55" t="str">
+        <f>IF(B56&lt;$C$5,F56,"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="55" t="str">
+        <f>IF(B56&lt;$C$5,-C57/(-1/PMT($C$12,$C$5-B56,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E57" s="55" t="str">
+        <f>IF(B56&lt;$C$5,(C57+D57)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F57" s="55" t="str">
+        <f>IF(B56&lt;$C$5,SUM(C57:E57),"")</f>
+        <v/>
+      </c>
+      <c r="G57" s="5" t="str">
+        <f>IF(B56&lt;$C$5,D57/D56-1,"")</f>
+        <v/>
+      </c>
+      <c r="I57" t="str">
+        <f>IF(I56&lt;$J$5,I56+1,"")</f>
+        <v/>
+      </c>
+      <c r="J57" s="55" t="str">
+        <f>IF(I56&lt;$J$5,M56,"")</f>
+        <v/>
+      </c>
+      <c r="K57" s="55" t="str">
+        <f>IF(I56&lt;$J$5,-J57/(-1/PMT($J$12,$J$5-I56,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L57" s="55" t="str">
+        <f>IF(I56&lt;$J$5,(J57+K57)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M57" s="55" t="str">
+        <f>IF(I56&lt;$J$5,SUM(J57:L57),"")</f>
+        <v/>
+      </c>
+      <c r="N57" s="5" t="str">
+        <f>IF(I56&lt;$J$5,K57/K56-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" t="str">
+        <f>IF(B57&lt;$C$5,B57+1,"")</f>
+        <v/>
+      </c>
+      <c r="C58" s="55" t="str">
+        <f>IF(B57&lt;$C$5,F57,"")</f>
+        <v/>
+      </c>
+      <c r="D58" s="55" t="str">
+        <f>IF(B57&lt;$C$5,-C58/(-1/PMT($C$12,$C$5-B57,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E58" s="55" t="str">
+        <f>IF(B57&lt;$C$5,(C58+D58)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F58" s="55" t="str">
+        <f>IF(B57&lt;$C$5,SUM(C58:E58),"")</f>
+        <v/>
+      </c>
+      <c r="G58" s="5" t="str">
+        <f>IF(B57&lt;$C$5,D58/D57-1,"")</f>
+        <v/>
+      </c>
+      <c r="I58" t="str">
+        <f>IF(I57&lt;$J$5,I57+1,"")</f>
+        <v/>
+      </c>
+      <c r="J58" s="55" t="str">
+        <f>IF(I57&lt;$J$5,M57,"")</f>
+        <v/>
+      </c>
+      <c r="K58" s="55" t="str">
+        <f>IF(I57&lt;$J$5,-J58/(-1/PMT($J$12,$J$5-I57,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L58" s="55" t="str">
+        <f>IF(I57&lt;$J$5,(J58+K58)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M58" s="55" t="str">
+        <f>IF(I57&lt;$J$5,SUM(J58:L58),"")</f>
+        <v/>
+      </c>
+      <c r="N58" s="5" t="str">
+        <f>IF(I57&lt;$J$5,K58/K57-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" t="str">
+        <f>IF(B58&lt;$C$5,B58+1,"")</f>
+        <v/>
+      </c>
+      <c r="C59" s="55" t="str">
+        <f>IF(B58&lt;$C$5,F58,"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="55" t="str">
+        <f>IF(B58&lt;$C$5,-C59/(-1/PMT($C$12,$C$5-B58,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="55" t="str">
+        <f>IF(B58&lt;$C$5,(C59+D59)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F59" s="55" t="str">
+        <f>IF(B58&lt;$C$5,SUM(C59:E59),"")</f>
+        <v/>
+      </c>
+      <c r="G59" s="5" t="str">
+        <f>IF(B58&lt;$C$5,D59/D58-1,"")</f>
+        <v/>
+      </c>
+      <c r="I59" t="str">
+        <f>IF(I58&lt;$J$5,I58+1,"")</f>
+        <v/>
+      </c>
+      <c r="J59" s="55" t="str">
+        <f>IF(I58&lt;$J$5,M58,"")</f>
+        <v/>
+      </c>
+      <c r="K59" s="55" t="str">
+        <f>IF(I58&lt;$J$5,-J59/(-1/PMT($J$12,$J$5-I58,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L59" s="55" t="str">
+        <f>IF(I58&lt;$J$5,(J59+K59)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M59" s="55" t="str">
+        <f>IF(I58&lt;$J$5,SUM(J59:L59),"")</f>
+        <v/>
+      </c>
+      <c r="N59" s="5" t="str">
+        <f>IF(I58&lt;$J$5,K59/K58-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" t="str">
+        <f>IF(B59&lt;$C$5,B59+1,"")</f>
+        <v/>
+      </c>
+      <c r="C60" s="55" t="str">
+        <f>IF(B59&lt;$C$5,F59,"")</f>
+        <v/>
+      </c>
+      <c r="D60" s="55" t="str">
+        <f>IF(B59&lt;$C$5,-C60/(-1/PMT($C$12,$C$5-B59,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E60" s="55" t="str">
+        <f>IF(B59&lt;$C$5,(C60+D60)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F60" s="55" t="str">
+        <f>IF(B59&lt;$C$5,SUM(C60:E60),"")</f>
+        <v/>
+      </c>
+      <c r="G60" s="5" t="str">
+        <f>IF(B59&lt;$C$5,D60/D59-1,"")</f>
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <f>IF(I59&lt;$J$5,I59+1,"")</f>
+        <v/>
+      </c>
+      <c r="J60" s="55" t="str">
+        <f>IF(I59&lt;$J$5,M59,"")</f>
+        <v/>
+      </c>
+      <c r="K60" s="55" t="str">
+        <f>IF(I59&lt;$J$5,-J60/(-1/PMT($J$12,$J$5-I59,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L60" s="55" t="str">
+        <f>IF(I59&lt;$J$5,(J60+K60)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M60" s="55" t="str">
+        <f>IF(I59&lt;$J$5,SUM(J60:L60),"")</f>
+        <v/>
+      </c>
+      <c r="N60" s="5" t="str">
+        <f>IF(I59&lt;$J$5,K60/K59-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" t="str">
+        <f>IF(B60&lt;$C$5,B60+1,"")</f>
+        <v/>
+      </c>
+      <c r="C61" s="55" t="str">
+        <f>IF(B60&lt;$C$5,F60,"")</f>
+        <v/>
+      </c>
+      <c r="D61" s="55" t="str">
+        <f>IF(B60&lt;$C$5,-C61/(-1/PMT($C$12,$C$5-B60,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E61" s="55" t="str">
+        <f>IF(B60&lt;$C$5,(C61+D61)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F61" s="55" t="str">
+        <f>IF(B60&lt;$C$5,SUM(C61:E61),"")</f>
+        <v/>
+      </c>
+      <c r="G61" s="5" t="str">
+        <f>IF(B60&lt;$C$5,D61/D60-1,"")</f>
+        <v/>
+      </c>
+      <c r="I61" t="str">
+        <f>IF(I60&lt;$J$5,I60+1,"")</f>
+        <v/>
+      </c>
+      <c r="J61" s="55" t="str">
+        <f>IF(I60&lt;$J$5,M60,"")</f>
+        <v/>
+      </c>
+      <c r="K61" s="55" t="str">
+        <f>IF(I60&lt;$J$5,-J61/(-1/PMT($J$12,$J$5-I60,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L61" s="55" t="str">
+        <f>IF(I60&lt;$J$5,(J61+K61)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M61" s="55" t="str">
+        <f>IF(I60&lt;$J$5,SUM(J61:L61),"")</f>
+        <v/>
+      </c>
+      <c r="N61" s="5" t="str">
+        <f>IF(I60&lt;$J$5,K61/K60-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" t="str">
+        <f>IF(B61&lt;$C$5,B61+1,"")</f>
+        <v/>
+      </c>
+      <c r="C62" s="55" t="str">
+        <f>IF(B61&lt;$C$5,F61,"")</f>
+        <v/>
+      </c>
+      <c r="D62" s="55" t="str">
+        <f>IF(B61&lt;$C$5,-C62/(-1/PMT($C$12,$C$5-B61,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E62" s="55" t="str">
+        <f>IF(B61&lt;$C$5,(C62+D62)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F62" s="55" t="str">
+        <f>IF(B61&lt;$C$5,SUM(C62:E62),"")</f>
+        <v/>
+      </c>
+      <c r="G62" s="5" t="str">
+        <f>IF(B61&lt;$C$5,D62/D61-1,"")</f>
+        <v/>
+      </c>
+      <c r="I62" t="str">
+        <f>IF(I61&lt;$J$5,I61+1,"")</f>
+        <v/>
+      </c>
+      <c r="J62" s="55" t="str">
+        <f>IF(I61&lt;$J$5,M61,"")</f>
+        <v/>
+      </c>
+      <c r="K62" s="55" t="str">
+        <f>IF(I61&lt;$J$5,-J62/(-1/PMT($J$12,$J$5-I61,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L62" s="55" t="str">
+        <f>IF(I61&lt;$J$5,(J62+K62)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M62" s="55" t="str">
+        <f>IF(I61&lt;$J$5,SUM(J62:L62),"")</f>
+        <v/>
+      </c>
+      <c r="N62" s="5" t="str">
+        <f>IF(I61&lt;$J$5,K62/K61-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" t="str">
+        <f>IF(B62&lt;$C$5,B62+1,"")</f>
+        <v/>
+      </c>
+      <c r="C63" s="55" t="str">
+        <f>IF(B62&lt;$C$5,F62,"")</f>
+        <v/>
+      </c>
+      <c r="D63" s="55" t="str">
+        <f>IF(B62&lt;$C$5,-C63/(-1/PMT($C$12,$C$5-B62,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E63" s="55" t="str">
+        <f>IF(B62&lt;$C$5,(C63+D63)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F63" s="55" t="str">
+        <f>IF(B62&lt;$C$5,SUM(C63:E63),"")</f>
+        <v/>
+      </c>
+      <c r="G63" s="5" t="str">
+        <f>IF(B62&lt;$C$5,D63/D62-1,"")</f>
+        <v/>
+      </c>
+      <c r="I63" t="str">
+        <f>IF(I62&lt;$J$5,I62+1,"")</f>
+        <v/>
+      </c>
+      <c r="J63" s="55" t="str">
+        <f>IF(I62&lt;$J$5,M62,"")</f>
+        <v/>
+      </c>
+      <c r="K63" s="55" t="str">
+        <f>IF(I62&lt;$J$5,-J63/(-1/PMT($J$12,$J$5-I62,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L63" s="55" t="str">
+        <f>IF(I62&lt;$J$5,(J63+K63)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M63" s="55" t="str">
+        <f>IF(I62&lt;$J$5,SUM(J63:L63),"")</f>
+        <v/>
+      </c>
+      <c r="N63" s="5" t="str">
+        <f>IF(I62&lt;$J$5,K63/K62-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" t="str">
+        <f>IF(B63&lt;$C$5,B63+1,"")</f>
+        <v/>
+      </c>
+      <c r="C64" s="55" t="str">
+        <f>IF(B63&lt;$C$5,F63,"")</f>
+        <v/>
+      </c>
+      <c r="D64" s="55" t="str">
+        <f>IF(B63&lt;$C$5,-C64/(-1/PMT($C$12,$C$5-B63,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E64" s="55" t="str">
+        <f>IF(B63&lt;$C$5,(C64+D64)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F64" s="55" t="str">
+        <f>IF(B63&lt;$C$5,SUM(C64:E64),"")</f>
+        <v/>
+      </c>
+      <c r="G64" s="5" t="str">
+        <f>IF(B63&lt;$C$5,D64/D63-1,"")</f>
+        <v/>
+      </c>
+      <c r="I64" t="str">
+        <f>IF(I63&lt;$J$5,I63+1,"")</f>
+        <v/>
+      </c>
+      <c r="J64" s="55" t="str">
+        <f>IF(I63&lt;$J$5,M63,"")</f>
+        <v/>
+      </c>
+      <c r="K64" s="55" t="str">
+        <f>IF(I63&lt;$J$5,-J64/(-1/PMT($J$12,$J$5-I63,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L64" s="55" t="str">
+        <f>IF(I63&lt;$J$5,(J64+K64)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M64" s="55" t="str">
+        <f>IF(I63&lt;$J$5,SUM(J64:L64),"")</f>
+        <v/>
+      </c>
+      <c r="N64" s="5" t="str">
+        <f>IF(I63&lt;$J$5,K64/K63-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" t="str">
+        <f>IF(B64&lt;$C$5,B64+1,"")</f>
+        <v/>
+      </c>
+      <c r="C65" s="55" t="str">
+        <f>IF(B64&lt;$C$5,F64,"")</f>
+        <v/>
+      </c>
+      <c r="D65" s="55" t="str">
+        <f>IF(B64&lt;$C$5,-C65/(-1/PMT($C$12,$C$5-B64,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E65" s="55" t="str">
+        <f>IF(B64&lt;$C$5,(C65+D65)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F65" s="55" t="str">
+        <f>IF(B64&lt;$C$5,SUM(C65:E65),"")</f>
+        <v/>
+      </c>
+      <c r="G65" s="5" t="str">
+        <f>IF(B64&lt;$C$5,D65/D64-1,"")</f>
+        <v/>
+      </c>
+      <c r="I65" t="str">
+        <f>IF(I64&lt;$J$5,I64+1,"")</f>
+        <v/>
+      </c>
+      <c r="J65" s="55" t="str">
+        <f>IF(I64&lt;$J$5,M64,"")</f>
+        <v/>
+      </c>
+      <c r="K65" s="55" t="str">
+        <f>IF(I64&lt;$J$5,-J65/(-1/PMT($J$12,$J$5-I64,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L65" s="55" t="str">
+        <f>IF(I64&lt;$J$5,(J65+K65)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M65" s="55" t="str">
+        <f>IF(I64&lt;$J$5,SUM(J65:L65),"")</f>
+        <v/>
+      </c>
+      <c r="N65" s="5" t="str">
+        <f>IF(I64&lt;$J$5,K65/K64-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" t="str">
+        <f>IF(B65&lt;$C$5,B65+1,"")</f>
+        <v/>
+      </c>
+      <c r="C66" s="55" t="str">
+        <f>IF(B65&lt;$C$5,F65,"")</f>
+        <v/>
+      </c>
+      <c r="D66" s="55" t="str">
+        <f>IF(B65&lt;$C$5,-C66/(-1/PMT($C$12,$C$5-B65,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E66" s="55" t="str">
+        <f>IF(B65&lt;$C$5,(C66+D66)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F66" s="55" t="str">
+        <f>IF(B65&lt;$C$5,SUM(C66:E66),"")</f>
+        <v/>
+      </c>
+      <c r="G66" s="5" t="str">
+        <f>IF(B65&lt;$C$5,D66/D65-1,"")</f>
+        <v/>
+      </c>
+      <c r="I66" t="str">
+        <f>IF(I65&lt;$J$5,I65+1,"")</f>
+        <v/>
+      </c>
+      <c r="J66" s="55" t="str">
+        <f>IF(I65&lt;$J$5,M65,"")</f>
+        <v/>
+      </c>
+      <c r="K66" s="55" t="str">
+        <f>IF(I65&lt;$J$5,-J66/(-1/PMT($J$12,$J$5-I65,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L66" s="55" t="str">
+        <f>IF(I65&lt;$J$5,(J66+K66)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M66" s="55" t="str">
+        <f>IF(I65&lt;$J$5,SUM(J66:L66),"")</f>
+        <v/>
+      </c>
+      <c r="N66" s="5" t="str">
+        <f>IF(I65&lt;$J$5,K66/K65-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" t="str">
+        <f>IF(B66&lt;$C$5,B66+1,"")</f>
+        <v/>
+      </c>
+      <c r="C67" s="55" t="str">
+        <f>IF(B66&lt;$C$5,F66,"")</f>
+        <v/>
+      </c>
+      <c r="D67" s="55" t="str">
+        <f>IF(B66&lt;$C$5,-C67/(-1/PMT($C$12,$C$5-B66,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E67" s="55" t="str">
+        <f>IF(B66&lt;$C$5,(C67+D67)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F67" s="55" t="str">
+        <f>IF(B66&lt;$C$5,SUM(C67:E67),"")</f>
+        <v/>
+      </c>
+      <c r="G67" s="5" t="str">
+        <f>IF(B66&lt;$C$5,D67/D66-1,"")</f>
+        <v/>
+      </c>
+      <c r="I67" t="str">
+        <f>IF(I66&lt;$J$5,I66+1,"")</f>
+        <v/>
+      </c>
+      <c r="J67" s="55" t="str">
+        <f>IF(I66&lt;$J$5,M66,"")</f>
+        <v/>
+      </c>
+      <c r="K67" s="55" t="str">
+        <f>IF(I66&lt;$J$5,-J67/(-1/PMT($J$12,$J$5-I66,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L67" s="55" t="str">
+        <f>IF(I66&lt;$J$5,(J67+K67)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M67" s="55" t="str">
+        <f>IF(I66&lt;$J$5,SUM(J67:L67),"")</f>
+        <v/>
+      </c>
+      <c r="N67" s="5" t="str">
+        <f>IF(I66&lt;$J$5,K67/K66-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" t="str">
+        <f>IF(B67&lt;$C$5,B67+1,"")</f>
+        <v/>
+      </c>
+      <c r="C68" s="55" t="str">
+        <f>IF(B67&lt;$C$5,F67,"")</f>
+        <v/>
+      </c>
+      <c r="D68" s="55" t="str">
+        <f>IF(B67&lt;$C$5,-C68/(-1/PMT($C$12,$C$5-B67,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E68" s="55" t="str">
+        <f>IF(B67&lt;$C$5,(C68+D68)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F68" s="55" t="str">
+        <f>IF(B67&lt;$C$5,SUM(C68:E68),"")</f>
+        <v/>
+      </c>
+      <c r="G68" s="5" t="str">
+        <f>IF(B67&lt;$C$5,D68/D67-1,"")</f>
+        <v/>
+      </c>
+      <c r="I68" t="str">
+        <f>IF(I67&lt;$J$5,I67+1,"")</f>
+        <v/>
+      </c>
+      <c r="J68" s="55" t="str">
+        <f>IF(I67&lt;$J$5,M67,"")</f>
+        <v/>
+      </c>
+      <c r="K68" s="55" t="str">
+        <f>IF(I67&lt;$J$5,-J68/(-1/PMT($J$12,$J$5-I67,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L68" s="55" t="str">
+        <f>IF(I67&lt;$J$5,(J68+K68)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M68" s="55" t="str">
+        <f>IF(I67&lt;$J$5,SUM(J68:L68),"")</f>
+        <v/>
+      </c>
+      <c r="N68" s="5" t="str">
+        <f>IF(I67&lt;$J$5,K68/K67-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" t="str">
+        <f>IF(B68&lt;$C$5,B68+1,"")</f>
+        <v/>
+      </c>
+      <c r="C69" s="55" t="str">
+        <f>IF(B68&lt;$C$5,F68,"")</f>
+        <v/>
+      </c>
+      <c r="D69" s="55" t="str">
+        <f>IF(B68&lt;$C$5,-C69/(-1/PMT($C$12,$C$5-B68,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E69" s="55" t="str">
+        <f>IF(B68&lt;$C$5,(C69+D69)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F69" s="55" t="str">
+        <f>IF(B68&lt;$C$5,SUM(C69:E69),"")</f>
+        <v/>
+      </c>
+      <c r="G69" s="5" t="str">
+        <f>IF(B68&lt;$C$5,D69/D68-1,"")</f>
+        <v/>
+      </c>
+      <c r="I69" t="str">
+        <f>IF(I68&lt;$J$5,I68+1,"")</f>
+        <v/>
+      </c>
+      <c r="J69" s="55" t="str">
+        <f>IF(I68&lt;$J$5,M68,"")</f>
+        <v/>
+      </c>
+      <c r="K69" s="55" t="str">
+        <f>IF(I68&lt;$J$5,-J69/(-1/PMT($J$12,$J$5-I68,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L69" s="55" t="str">
+        <f>IF(I68&lt;$J$5,(J69+K69)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M69" s="55" t="str">
+        <f>IF(I68&lt;$J$5,SUM(J69:L69),"")</f>
+        <v/>
+      </c>
+      <c r="N69" s="5" t="str">
+        <f>IF(I68&lt;$J$5,K69/K68-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" t="str">
+        <f>IF(B69&lt;$C$5,B69+1,"")</f>
+        <v/>
+      </c>
+      <c r="C70" s="55" t="str">
+        <f>IF(B69&lt;$C$5,F69,"")</f>
+        <v/>
+      </c>
+      <c r="D70" s="55" t="str">
+        <f>IF(B69&lt;$C$5,-C70/(-1/PMT($C$12,$C$5-B69,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E70" s="55" t="str">
+        <f>IF(B69&lt;$C$5,(C70+D70)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F70" s="55" t="str">
+        <f>IF(B69&lt;$C$5,SUM(C70:E70),"")</f>
+        <v/>
+      </c>
+      <c r="G70" s="5" t="str">
+        <f>IF(B69&lt;$C$5,D70/D69-1,"")</f>
+        <v/>
+      </c>
+      <c r="I70" t="str">
+        <f>IF(I69&lt;$J$5,I69+1,"")</f>
+        <v/>
+      </c>
+      <c r="J70" s="55" t="str">
+        <f>IF(I69&lt;$J$5,M69,"")</f>
+        <v/>
+      </c>
+      <c r="K70" s="55" t="str">
+        <f>IF(I69&lt;$J$5,-J70/(-1/PMT($J$12,$J$5-I69,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L70" s="55" t="str">
+        <f>IF(I69&lt;$J$5,(J70+K70)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M70" s="55" t="str">
+        <f>IF(I69&lt;$J$5,SUM(J70:L70),"")</f>
+        <v/>
+      </c>
+      <c r="N70" s="5" t="str">
+        <f>IF(I69&lt;$J$5,K70/K69-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" t="str">
+        <f>IF(B70&lt;$C$5,B70+1,"")</f>
+        <v/>
+      </c>
+      <c r="C71" s="55" t="str">
+        <f>IF(B70&lt;$C$5,F70,"")</f>
+        <v/>
+      </c>
+      <c r="D71" s="55" t="str">
+        <f>IF(B70&lt;$C$5,-C71/(-1/PMT($C$12,$C$5-B70,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E71" s="55" t="str">
+        <f>IF(B70&lt;$C$5,(C71+D71)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F71" s="55" t="str">
+        <f>IF(B70&lt;$C$5,SUM(C71:E71),"")</f>
+        <v/>
+      </c>
+      <c r="G71" s="5" t="str">
+        <f>IF(B70&lt;$C$5,D71/D70-1,"")</f>
+        <v/>
+      </c>
+      <c r="I71" t="str">
+        <f>IF(I70&lt;$J$5,I70+1,"")</f>
+        <v/>
+      </c>
+      <c r="J71" s="55" t="str">
+        <f>IF(I70&lt;$J$5,M70,"")</f>
+        <v/>
+      </c>
+      <c r="K71" s="55" t="str">
+        <f>IF(I70&lt;$J$5,-J71/(-1/PMT($J$12,$J$5-I70,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L71" s="55" t="str">
+        <f>IF(I70&lt;$J$5,(J71+K71)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M71" s="55" t="str">
+        <f>IF(I70&lt;$J$5,SUM(J71:L71),"")</f>
+        <v/>
+      </c>
+      <c r="N71" s="5" t="str">
+        <f>IF(I70&lt;$J$5,K71/K70-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" t="str">
+        <f>IF(B71&lt;$C$5,B71+1,"")</f>
+        <v/>
+      </c>
+      <c r="C72" s="55" t="str">
+        <f>IF(B71&lt;$C$5,F71,"")</f>
+        <v/>
+      </c>
+      <c r="D72" s="55" t="str">
+        <f>IF(B71&lt;$C$5,-C72/(-1/PMT($C$12,$C$5-B71,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E72" s="55" t="str">
+        <f>IF(B71&lt;$C$5,(C72+D72)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F72" s="55" t="str">
+        <f>IF(B71&lt;$C$5,SUM(C72:E72),"")</f>
+        <v/>
+      </c>
+      <c r="G72" s="5" t="str">
+        <f>IF(B71&lt;$C$5,D72/D71-1,"")</f>
+        <v/>
+      </c>
+      <c r="I72" t="str">
+        <f>IF(I71&lt;$J$5,I71+1,"")</f>
+        <v/>
+      </c>
+      <c r="J72" s="55" t="str">
+        <f>IF(I71&lt;$J$5,M71,"")</f>
+        <v/>
+      </c>
+      <c r="K72" s="55" t="str">
+        <f>IF(I71&lt;$J$5,-J72/(-1/PMT($J$12,$J$5-I71,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L72" s="55" t="str">
+        <f>IF(I71&lt;$J$5,(J72+K72)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M72" s="55" t="str">
+        <f>IF(I71&lt;$J$5,SUM(J72:L72),"")</f>
+        <v/>
+      </c>
+      <c r="N72" s="5" t="str">
+        <f>IF(I71&lt;$J$5,K72/K71-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" t="str">
+        <f>IF(B72&lt;$C$5,B72+1,"")</f>
+        <v/>
+      </c>
+      <c r="C73" s="55" t="str">
+        <f>IF(B72&lt;$C$5,F72,"")</f>
+        <v/>
+      </c>
+      <c r="D73" s="55" t="str">
+        <f>IF(B72&lt;$C$5,-C73/(-1/PMT($C$12,$C$5-B72,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E73" s="55" t="str">
+        <f>IF(B72&lt;$C$5,(C73+D73)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F73" s="55" t="str">
+        <f>IF(B72&lt;$C$5,SUM(C73:E73),"")</f>
+        <v/>
+      </c>
+      <c r="G73" s="5" t="str">
+        <f>IF(B72&lt;$C$5,D73/D72-1,"")</f>
+        <v/>
+      </c>
+      <c r="I73" t="str">
+        <f>IF(I72&lt;$J$5,I72+1,"")</f>
+        <v/>
+      </c>
+      <c r="J73" s="55" t="str">
+        <f>IF(I72&lt;$J$5,M72,"")</f>
+        <v/>
+      </c>
+      <c r="K73" s="55" t="str">
+        <f>IF(I72&lt;$J$5,-J73/(-1/PMT($J$12,$J$5-I72,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L73" s="55" t="str">
+        <f>IF(I72&lt;$J$5,(J73+K73)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M73" s="55" t="str">
+        <f>IF(I72&lt;$J$5,SUM(J73:L73),"")</f>
+        <v/>
+      </c>
+      <c r="N73" s="5" t="str">
+        <f>IF(I72&lt;$J$5,K73/K72-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" t="str">
+        <f>IF(B73&lt;$C$5,B73+1,"")</f>
+        <v/>
+      </c>
+      <c r="C74" s="55" t="str">
+        <f>IF(B73&lt;$C$5,F73,"")</f>
+        <v/>
+      </c>
+      <c r="D74" s="55" t="str">
+        <f>IF(B73&lt;$C$5,-C74/(-1/PMT($C$12,$C$5-B73,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E74" s="55" t="str">
+        <f>IF(B73&lt;$C$5,(C74+D74)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F74" s="55" t="str">
+        <f>IF(B73&lt;$C$5,SUM(C74:E74),"")</f>
+        <v/>
+      </c>
+      <c r="G74" s="5" t="str">
+        <f>IF(B73&lt;$C$5,D74/D73-1,"")</f>
+        <v/>
+      </c>
+      <c r="I74" t="str">
+        <f>IF(I73&lt;$J$5,I73+1,"")</f>
+        <v/>
+      </c>
+      <c r="J74" s="55" t="str">
+        <f>IF(I73&lt;$J$5,M73,"")</f>
+        <v/>
+      </c>
+      <c r="K74" s="55" t="str">
+        <f>IF(I73&lt;$J$5,-J74/(-1/PMT($J$12,$J$5-I73,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L74" s="55" t="str">
+        <f>IF(I73&lt;$J$5,(J74+K74)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M74" s="55" t="str">
+        <f>IF(I73&lt;$J$5,SUM(J74:L74),"")</f>
+        <v/>
+      </c>
+      <c r="N74" s="5" t="str">
+        <f>IF(I73&lt;$J$5,K74/K73-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" t="str">
+        <f>IF(B74&lt;$C$5,B74+1,"")</f>
+        <v/>
+      </c>
+      <c r="C75" s="55" t="str">
+        <f>IF(B74&lt;$C$5,F74,"")</f>
+        <v/>
+      </c>
+      <c r="D75" s="55" t="str">
+        <f>IF(B74&lt;$C$5,-C75/(-1/PMT($C$12,$C$5-B74,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E75" s="55" t="str">
+        <f>IF(B74&lt;$C$5,(C75+D75)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F75" s="55" t="str">
+        <f>IF(B74&lt;$C$5,SUM(C75:E75),"")</f>
+        <v/>
+      </c>
+      <c r="G75" s="5" t="str">
+        <f>IF(B74&lt;$C$5,D75/D74-1,"")</f>
+        <v/>
+      </c>
+      <c r="I75" t="str">
+        <f>IF(I74&lt;$J$5,I74+1,"")</f>
+        <v/>
+      </c>
+      <c r="J75" s="55" t="str">
+        <f>IF(I74&lt;$J$5,M74,"")</f>
+        <v/>
+      </c>
+      <c r="K75" s="55" t="str">
+        <f>IF(I74&lt;$J$5,-J75/(-1/PMT($J$12,$J$5-I74,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L75" s="55" t="str">
+        <f>IF(I74&lt;$J$5,(J75+K75)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M75" s="55" t="str">
+        <f>IF(I74&lt;$J$5,SUM(J75:L75),"")</f>
+        <v/>
+      </c>
+      <c r="N75" s="5" t="str">
+        <f>IF(I74&lt;$J$5,K75/K74-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" t="str">
+        <f>IF(B75&lt;$C$5,B75+1,"")</f>
+        <v/>
+      </c>
+      <c r="C76" s="55" t="str">
+        <f>IF(B75&lt;$C$5,F75,"")</f>
+        <v/>
+      </c>
+      <c r="D76" s="55" t="str">
+        <f>IF(B75&lt;$C$5,-C76/(-1/PMT($C$12,$C$5-B75,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E76" s="55" t="str">
+        <f>IF(B75&lt;$C$5,(C76+D76)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F76" s="55" t="str">
+        <f>IF(B75&lt;$C$5,SUM(C76:E76),"")</f>
+        <v/>
+      </c>
+      <c r="G76" s="5" t="str">
+        <f>IF(B75&lt;$C$5,D76/D75-1,"")</f>
+        <v/>
+      </c>
+      <c r="I76" t="str">
+        <f>IF(I75&lt;$J$5,I75+1,"")</f>
+        <v/>
+      </c>
+      <c r="J76" s="55" t="str">
+        <f>IF(I75&lt;$J$5,M75,"")</f>
+        <v/>
+      </c>
+      <c r="K76" s="55" t="str">
+        <f>IF(I75&lt;$J$5,-J76/(-1/PMT($J$12,$J$5-I75,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L76" s="55" t="str">
+        <f>IF(I75&lt;$J$5,(J76+K76)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M76" s="55" t="str">
+        <f>IF(I75&lt;$J$5,SUM(J76:L76),"")</f>
+        <v/>
+      </c>
+      <c r="N76" s="5" t="str">
+        <f>IF(I75&lt;$J$5,K76/K75-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" t="str">
+        <f>IF(B76&lt;$C$5,B76+1,"")</f>
+        <v/>
+      </c>
+      <c r="C77" s="55" t="str">
+        <f>IF(B76&lt;$C$5,F76,"")</f>
+        <v/>
+      </c>
+      <c r="D77" s="55" t="str">
+        <f>IF(B76&lt;$C$5,-C77/(-1/PMT($C$12,$C$5-B76,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E77" s="55" t="str">
+        <f>IF(B76&lt;$C$5,(C77+D77)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F77" s="55" t="str">
+        <f>IF(B76&lt;$C$5,SUM(C77:E77),"")</f>
+        <v/>
+      </c>
+      <c r="G77" s="5" t="str">
+        <f>IF(B76&lt;$C$5,D77/D76-1,"")</f>
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <f>IF(I76&lt;$J$5,I76+1,"")</f>
+        <v/>
+      </c>
+      <c r="J77" s="55" t="str">
+        <f>IF(I76&lt;$J$5,M76,"")</f>
+        <v/>
+      </c>
+      <c r="K77" s="55" t="str">
+        <f>IF(I76&lt;$J$5,-J77/(-1/PMT($J$12,$J$5-I76,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L77" s="55" t="str">
+        <f>IF(I76&lt;$J$5,(J77+K77)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M77" s="55" t="str">
+        <f>IF(I76&lt;$J$5,SUM(J77:L77),"")</f>
+        <v/>
+      </c>
+      <c r="N77" s="5" t="str">
+        <f>IF(I76&lt;$J$5,K77/K76-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" t="str">
+        <f>IF(B77&lt;$C$5,B77+1,"")</f>
+        <v/>
+      </c>
+      <c r="C78" s="55" t="str">
+        <f>IF(B77&lt;$C$5,F77,"")</f>
+        <v/>
+      </c>
+      <c r="D78" s="55" t="str">
+        <f>IF(B77&lt;$C$5,-C78/(-1/PMT($C$12,$C$5-B77,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E78" s="55" t="str">
+        <f>IF(B77&lt;$C$5,(C78+D78)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F78" s="55" t="str">
+        <f>IF(B77&lt;$C$5,SUM(C78:E78),"")</f>
+        <v/>
+      </c>
+      <c r="G78" s="5" t="str">
+        <f>IF(B77&lt;$C$5,D78/D77-1,"")</f>
+        <v/>
+      </c>
+      <c r="I78" t="str">
+        <f>IF(I77&lt;$J$5,I77+1,"")</f>
+        <v/>
+      </c>
+      <c r="J78" s="55" t="str">
+        <f>IF(I77&lt;$J$5,M77,"")</f>
+        <v/>
+      </c>
+      <c r="K78" s="55" t="str">
+        <f>IF(I77&lt;$J$5,-J78/(-1/PMT($J$12,$J$5-I77,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L78" s="55" t="str">
+        <f>IF(I77&lt;$J$5,(J78+K78)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M78" s="55" t="str">
+        <f>IF(I77&lt;$J$5,SUM(J78:L78),"")</f>
+        <v/>
+      </c>
+      <c r="N78" s="5" t="str">
+        <f>IF(I77&lt;$J$5,K78/K77-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" t="str">
+        <f>IF(B78&lt;$C$5,B78+1,"")</f>
+        <v/>
+      </c>
+      <c r="C79" s="55" t="str">
+        <f>IF(B78&lt;$C$5,F78,"")</f>
+        <v/>
+      </c>
+      <c r="D79" s="55" t="str">
+        <f>IF(B78&lt;$C$5,-C79/(-1/PMT($C$12,$C$5-B78,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E79" s="55" t="str">
+        <f>IF(B78&lt;$C$5,(C79+D79)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F79" s="55" t="str">
+        <f>IF(B78&lt;$C$5,SUM(C79:E79),"")</f>
+        <v/>
+      </c>
+      <c r="G79" s="5" t="str">
+        <f>IF(B78&lt;$C$5,D79/D78-1,"")</f>
+        <v/>
+      </c>
+      <c r="I79" t="str">
+        <f>IF(I78&lt;$J$5,I78+1,"")</f>
+        <v/>
+      </c>
+      <c r="J79" s="55" t="str">
+        <f>IF(I78&lt;$J$5,M78,"")</f>
+        <v/>
+      </c>
+      <c r="K79" s="55" t="str">
+        <f>IF(I78&lt;$J$5,-J79/(-1/PMT($J$12,$J$5-I78,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L79" s="55" t="str">
+        <f>IF(I78&lt;$J$5,(J79+K79)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M79" s="55" t="str">
+        <f>IF(I78&lt;$J$5,SUM(J79:L79),"")</f>
+        <v/>
+      </c>
+      <c r="N79" s="5" t="str">
+        <f>IF(I78&lt;$J$5,K79/K78-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" t="str">
+        <f>IF(B79&lt;$C$5,B79+1,"")</f>
+        <v/>
+      </c>
+      <c r="C80" s="55" t="str">
+        <f>IF(B79&lt;$C$5,F79,"")</f>
+        <v/>
+      </c>
+      <c r="D80" s="55" t="str">
+        <f>IF(B79&lt;$C$5,-C80/(-1/PMT($C$12,$C$5-B79,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E80" s="55" t="str">
+        <f>IF(B79&lt;$C$5,(C80+D80)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F80" s="55" t="str">
+        <f>IF(B79&lt;$C$5,SUM(C80:E80),"")</f>
+        <v/>
+      </c>
+      <c r="G80" s="5" t="str">
+        <f>IF(B79&lt;$C$5,D80/D79-1,"")</f>
+        <v/>
+      </c>
+      <c r="I80" t="str">
+        <f>IF(I79&lt;$J$5,I79+1,"")</f>
+        <v/>
+      </c>
+      <c r="J80" s="55" t="str">
+        <f>IF(I79&lt;$J$5,M79,"")</f>
+        <v/>
+      </c>
+      <c r="K80" s="55" t="str">
+        <f>IF(I79&lt;$J$5,-J80/(-1/PMT($J$12,$J$5-I79,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L80" s="55" t="str">
+        <f>IF(I79&lt;$J$5,(J80+K80)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M80" s="55" t="str">
+        <f>IF(I79&lt;$J$5,SUM(J80:L80),"")</f>
+        <v/>
+      </c>
+      <c r="N80" s="5" t="str">
+        <f>IF(I79&lt;$J$5,K80/K79-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" t="str">
+        <f>IF(B80&lt;$C$5,B80+1,"")</f>
+        <v/>
+      </c>
+      <c r="C81" s="55" t="str">
+        <f>IF(B80&lt;$C$5,F80,"")</f>
+        <v/>
+      </c>
+      <c r="D81" s="55" t="str">
+        <f>IF(B80&lt;$C$5,-C81/(-1/PMT($C$12,$C$5-B80,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E81" s="55" t="str">
+        <f>IF(B80&lt;$C$5,(C81+D81)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F81" s="55" t="str">
+        <f>IF(B80&lt;$C$5,SUM(C81:E81),"")</f>
+        <v/>
+      </c>
+      <c r="G81" s="5" t="str">
+        <f>IF(B80&lt;$C$5,D81/D80-1,"")</f>
+        <v/>
+      </c>
+      <c r="I81" t="str">
+        <f>IF(I80&lt;$J$5,I80+1,"")</f>
+        <v/>
+      </c>
+      <c r="J81" s="55" t="str">
+        <f>IF(I80&lt;$J$5,M80,"")</f>
+        <v/>
+      </c>
+      <c r="K81" s="55" t="str">
+        <f>IF(I80&lt;$J$5,-J81/(-1/PMT($J$12,$J$5-I80,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L81" s="55" t="str">
+        <f>IF(I80&lt;$J$5,(J81+K81)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M81" s="55" t="str">
+        <f>IF(I80&lt;$J$5,SUM(J81:L81),"")</f>
+        <v/>
+      </c>
+      <c r="N81" s="5" t="str">
+        <f>IF(I80&lt;$J$5,K81/K80-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" t="str">
+        <f>IF(B81&lt;$C$5,B81+1,"")</f>
+        <v/>
+      </c>
+      <c r="C82" s="55" t="str">
+        <f>IF(B81&lt;$C$5,F81,"")</f>
+        <v/>
+      </c>
+      <c r="D82" s="55" t="str">
+        <f>IF(B81&lt;$C$5,-C82/(-1/PMT($C$12,$C$5-B81,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E82" s="55" t="str">
+        <f>IF(B81&lt;$C$5,(C82+D82)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F82" s="55" t="str">
+        <f>IF(B81&lt;$C$5,SUM(C82:E82),"")</f>
+        <v/>
+      </c>
+      <c r="G82" s="5" t="str">
+        <f>IF(B81&lt;$C$5,D82/D81-1,"")</f>
+        <v/>
+      </c>
+      <c r="I82" t="str">
+        <f>IF(I81&lt;$J$5,I81+1,"")</f>
+        <v/>
+      </c>
+      <c r="J82" s="55" t="str">
+        <f>IF(I81&lt;$J$5,M81,"")</f>
+        <v/>
+      </c>
+      <c r="K82" s="55" t="str">
+        <f>IF(I81&lt;$J$5,-J82/(-1/PMT($J$12,$J$5-I81,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L82" s="55" t="str">
+        <f>IF(I81&lt;$J$5,(J82+K82)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M82" s="55" t="str">
+        <f>IF(I81&lt;$J$5,SUM(J82:L82),"")</f>
+        <v/>
+      </c>
+      <c r="N82" s="5" t="str">
+        <f>IF(I81&lt;$J$5,K82/K81-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" t="str">
+        <f>IF(B82&lt;$C$5,B82+1,"")</f>
+        <v/>
+      </c>
+      <c r="C83" s="55" t="str">
+        <f>IF(B82&lt;$C$5,F82,"")</f>
+        <v/>
+      </c>
+      <c r="D83" s="55" t="str">
+        <f>IF(B82&lt;$C$5,-C83/(-1/PMT($C$12,$C$5-B82,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E83" s="55" t="str">
+        <f>IF(B82&lt;$C$5,(C83+D83)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F83" s="55" t="str">
+        <f>IF(B82&lt;$C$5,SUM(C83:E83),"")</f>
+        <v/>
+      </c>
+      <c r="G83" s="5" t="str">
+        <f>IF(B82&lt;$C$5,D83/D82-1,"")</f>
+        <v/>
+      </c>
+      <c r="I83" t="str">
+        <f>IF(I82&lt;$J$5,I82+1,"")</f>
+        <v/>
+      </c>
+      <c r="J83" s="55" t="str">
+        <f>IF(I82&lt;$J$5,M82,"")</f>
+        <v/>
+      </c>
+      <c r="K83" s="55" t="str">
+        <f>IF(I82&lt;$J$5,-J83/(-1/PMT($J$12,$J$5-I82,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L83" s="55" t="str">
+        <f>IF(I82&lt;$J$5,(J83+K83)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M83" s="55" t="str">
+        <f>IF(I82&lt;$J$5,SUM(J83:L83),"")</f>
+        <v/>
+      </c>
+      <c r="N83" s="5" t="str">
+        <f>IF(I82&lt;$J$5,K83/K82-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" t="str">
+        <f>IF(B83&lt;$C$5,B83+1,"")</f>
+        <v/>
+      </c>
+      <c r="C84" s="55" t="str">
+        <f>IF(B83&lt;$C$5,F83,"")</f>
+        <v/>
+      </c>
+      <c r="D84" s="55" t="str">
+        <f>IF(B83&lt;$C$5,-C84/(-1/PMT($C$12,$C$5-B83,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E84" s="55" t="str">
+        <f>IF(B83&lt;$C$5,(C84+D84)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F84" s="55" t="str">
+        <f>IF(B83&lt;$C$5,SUM(C84:E84),"")</f>
+        <v/>
+      </c>
+      <c r="G84" s="5" t="str">
+        <f>IF(B83&lt;$C$5,D84/D83-1,"")</f>
+        <v/>
+      </c>
+      <c r="I84" t="str">
+        <f>IF(I83&lt;$J$5,I83+1,"")</f>
+        <v/>
+      </c>
+      <c r="J84" s="55" t="str">
+        <f>IF(I83&lt;$J$5,M83,"")</f>
+        <v/>
+      </c>
+      <c r="K84" s="55" t="str">
+        <f>IF(I83&lt;$J$5,-J84/(-1/PMT($J$12,$J$5-I83,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L84" s="55" t="str">
+        <f>IF(I83&lt;$J$5,(J84+K84)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M84" s="55" t="str">
+        <f>IF(I83&lt;$J$5,SUM(J84:L84),"")</f>
+        <v/>
+      </c>
+      <c r="N84" s="5" t="str">
+        <f>IF(I83&lt;$J$5,K84/K83-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" t="str">
+        <f>IF(B84&lt;$C$5,B84+1,"")</f>
+        <v/>
+      </c>
+      <c r="C85" s="55" t="str">
+        <f>IF(B84&lt;$C$5,F84,"")</f>
+        <v/>
+      </c>
+      <c r="D85" s="55" t="str">
+        <f>IF(B84&lt;$C$5,-C85/(-1/PMT($C$12,$C$5-B84,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E85" s="55" t="str">
+        <f>IF(B84&lt;$C$5,(C85+D85)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F85" s="55" t="str">
+        <f>IF(B84&lt;$C$5,SUM(C85:E85),"")</f>
+        <v/>
+      </c>
+      <c r="G85" s="5" t="str">
+        <f>IF(B84&lt;$C$5,D85/D84-1,"")</f>
+        <v/>
+      </c>
+      <c r="I85" t="str">
+        <f>IF(I84&lt;$J$5,I84+1,"")</f>
+        <v/>
+      </c>
+      <c r="J85" s="55" t="str">
+        <f>IF(I84&lt;$J$5,M84,"")</f>
+        <v/>
+      </c>
+      <c r="K85" s="55" t="str">
+        <f>IF(I84&lt;$J$5,-J85/(-1/PMT($J$12,$J$5-I84,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L85" s="55" t="str">
+        <f>IF(I84&lt;$J$5,(J85+K85)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M85" s="55" t="str">
+        <f>IF(I84&lt;$J$5,SUM(J85:L85),"")</f>
+        <v/>
+      </c>
+      <c r="N85" s="5" t="str">
+        <f>IF(I84&lt;$J$5,K85/K84-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" t="str">
+        <f>IF(B85&lt;$C$5,B85+1,"")</f>
+        <v/>
+      </c>
+      <c r="C86" s="55" t="str">
+        <f>IF(B85&lt;$C$5,F85,"")</f>
+        <v/>
+      </c>
+      <c r="D86" s="55" t="str">
+        <f>IF(B85&lt;$C$5,-C86/(-1/PMT($C$12,$C$5-B85,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E86" s="55" t="str">
+        <f>IF(B85&lt;$C$5,(C86+D86)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F86" s="55" t="str">
+        <f>IF(B85&lt;$C$5,SUM(C86:E86),"")</f>
+        <v/>
+      </c>
+      <c r="G86" s="5" t="str">
+        <f>IF(B85&lt;$C$5,D86/D85-1,"")</f>
+        <v/>
+      </c>
+      <c r="I86" t="str">
+        <f>IF(I85&lt;$J$5,I85+1,"")</f>
+        <v/>
+      </c>
+      <c r="J86" s="55" t="str">
+        <f>IF(I85&lt;$J$5,M85,"")</f>
+        <v/>
+      </c>
+      <c r="K86" s="55" t="str">
+        <f>IF(I85&lt;$J$5,-J86/(-1/PMT($J$12,$J$5-I85,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L86" s="55" t="str">
+        <f>IF(I85&lt;$J$5,(J86+K86)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M86" s="55" t="str">
+        <f>IF(I85&lt;$J$5,SUM(J86:L86),"")</f>
+        <v/>
+      </c>
+      <c r="N86" s="5" t="str">
+        <f>IF(I85&lt;$J$5,K86/K85-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" t="str">
+        <f>IF(B86&lt;$C$5,B86+1,"")</f>
+        <v/>
+      </c>
+      <c r="C87" s="55" t="str">
+        <f>IF(B86&lt;$C$5,F86,"")</f>
+        <v/>
+      </c>
+      <c r="D87" s="55" t="str">
+        <f>IF(B86&lt;$C$5,-C87/(-1/PMT($C$12,$C$5-B86,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E87" s="55" t="str">
+        <f>IF(B86&lt;$C$5,(C87+D87)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F87" s="55" t="str">
+        <f>IF(B86&lt;$C$5,SUM(C87:E87),"")</f>
+        <v/>
+      </c>
+      <c r="G87" s="5" t="str">
+        <f>IF(B86&lt;$C$5,D87/D86-1,"")</f>
+        <v/>
+      </c>
+      <c r="I87" t="str">
+        <f>IF(I86&lt;$J$5,I86+1,"")</f>
+        <v/>
+      </c>
+      <c r="J87" s="55" t="str">
+        <f>IF(I86&lt;$J$5,M86,"")</f>
+        <v/>
+      </c>
+      <c r="K87" s="55" t="str">
+        <f>IF(I86&lt;$J$5,-J87/(-1/PMT($J$12,$J$5-I86,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L87" s="55" t="str">
+        <f>IF(I86&lt;$J$5,(J87+K87)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M87" s="55" t="str">
+        <f>IF(I86&lt;$J$5,SUM(J87:L87),"")</f>
+        <v/>
+      </c>
+      <c r="N87" s="5" t="str">
+        <f>IF(I86&lt;$J$5,K87/K86-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" t="str">
+        <f>IF(B87&lt;$C$5,B87+1,"")</f>
+        <v/>
+      </c>
+      <c r="C88" s="55" t="str">
+        <f>IF(B87&lt;$C$5,F87,"")</f>
+        <v/>
+      </c>
+      <c r="D88" s="55" t="str">
+        <f>IF(B87&lt;$C$5,-C88/(-1/PMT($C$12,$C$5-B87,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E88" s="55" t="str">
+        <f>IF(B87&lt;$C$5,(C88+D88)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F88" s="55" t="str">
+        <f>IF(B87&lt;$C$5,SUM(C88:E88),"")</f>
+        <v/>
+      </c>
+      <c r="G88" s="5" t="str">
+        <f>IF(B87&lt;$C$5,D88/D87-1,"")</f>
+        <v/>
+      </c>
+      <c r="I88" t="str">
+        <f>IF(I87&lt;$J$5,I87+1,"")</f>
+        <v/>
+      </c>
+      <c r="J88" s="55" t="str">
+        <f>IF(I87&lt;$J$5,M87,"")</f>
+        <v/>
+      </c>
+      <c r="K88" s="55" t="str">
+        <f>IF(I87&lt;$J$5,-J88/(-1/PMT($J$12,$J$5-I87,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L88" s="55" t="str">
+        <f>IF(I87&lt;$J$5,(J88+K88)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M88" s="55" t="str">
+        <f>IF(I87&lt;$J$5,SUM(J88:L88),"")</f>
+        <v/>
+      </c>
+      <c r="N88" s="5" t="str">
+        <f>IF(I87&lt;$J$5,K88/K87-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" t="str">
+        <f>IF(B88&lt;$C$5,B88+1,"")</f>
+        <v/>
+      </c>
+      <c r="C89" s="55" t="str">
+        <f>IF(B88&lt;$C$5,F88,"")</f>
+        <v/>
+      </c>
+      <c r="D89" s="55" t="str">
+        <f>IF(B88&lt;$C$5,-C89/(-1/PMT($C$12,$C$5-B88,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E89" s="55" t="str">
+        <f>IF(B88&lt;$C$5,(C89+D89)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F89" s="55" t="str">
+        <f>IF(B88&lt;$C$5,SUM(C89:E89),"")</f>
+        <v/>
+      </c>
+      <c r="G89" s="5" t="str">
+        <f>IF(B88&lt;$C$5,D89/D88-1,"")</f>
+        <v/>
+      </c>
+      <c r="I89" t="str">
+        <f>IF(I88&lt;$J$5,I88+1,"")</f>
+        <v/>
+      </c>
+      <c r="J89" s="55" t="str">
+        <f>IF(I88&lt;$J$5,M88,"")</f>
+        <v/>
+      </c>
+      <c r="K89" s="55" t="str">
+        <f>IF(I88&lt;$J$5,-J89/(-1/PMT($J$12,$J$5-I88,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L89" s="55" t="str">
+        <f>IF(I88&lt;$J$5,(J89+K89)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M89" s="55" t="str">
+        <f>IF(I88&lt;$J$5,SUM(J89:L89),"")</f>
+        <v/>
+      </c>
+      <c r="N89" s="5" t="str">
+        <f>IF(I88&lt;$J$5,K89/K88-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" t="str">
+        <f>IF(B89&lt;$C$5,B89+1,"")</f>
+        <v/>
+      </c>
+      <c r="C90" s="55" t="str">
+        <f>IF(B89&lt;$C$5,F89,"")</f>
+        <v/>
+      </c>
+      <c r="D90" s="55" t="str">
+        <f>IF(B89&lt;$C$5,-C90/(-1/PMT($C$12,$C$5-B89,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E90" s="55" t="str">
+        <f>IF(B89&lt;$C$5,(C90+D90)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F90" s="55" t="str">
+        <f>IF(B89&lt;$C$5,SUM(C90:E90),"")</f>
+        <v/>
+      </c>
+      <c r="G90" s="5" t="str">
+        <f>IF(B89&lt;$C$5,D90/D89-1,"")</f>
+        <v/>
+      </c>
+      <c r="I90" t="str">
+        <f>IF(I89&lt;$J$5,I89+1,"")</f>
+        <v/>
+      </c>
+      <c r="J90" s="55" t="str">
+        <f>IF(I89&lt;$J$5,M89,"")</f>
+        <v/>
+      </c>
+      <c r="K90" s="55" t="str">
+        <f>IF(I89&lt;$J$5,-J90/(-1/PMT($J$12,$J$5-I89,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L90" s="55" t="str">
+        <f>IF(I89&lt;$J$5,(J90+K90)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M90" s="55" t="str">
+        <f>IF(I89&lt;$J$5,SUM(J90:L90),"")</f>
+        <v/>
+      </c>
+      <c r="N90" s="5" t="str">
+        <f>IF(I89&lt;$J$5,K90/K89-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" t="str">
+        <f>IF(B90&lt;$C$5,B90+1,"")</f>
+        <v/>
+      </c>
+      <c r="C91" s="55" t="str">
+        <f>IF(B90&lt;$C$5,F90,"")</f>
+        <v/>
+      </c>
+      <c r="D91" s="55" t="str">
+        <f>IF(B90&lt;$C$5,-C91/(-1/PMT($C$12,$C$5-B90,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E91" s="55" t="str">
+        <f>IF(B90&lt;$C$5,(C91+D91)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F91" s="55" t="str">
+        <f>IF(B90&lt;$C$5,SUM(C91:E91),"")</f>
+        <v/>
+      </c>
+      <c r="G91" s="5" t="str">
+        <f>IF(B90&lt;$C$5,D91/D90-1,"")</f>
+        <v/>
+      </c>
+      <c r="I91" t="str">
+        <f>IF(I90&lt;$J$5,I90+1,"")</f>
+        <v/>
+      </c>
+      <c r="J91" s="55" t="str">
+        <f>IF(I90&lt;$J$5,M90,"")</f>
+        <v/>
+      </c>
+      <c r="K91" s="55" t="str">
+        <f>IF(I90&lt;$J$5,-J91/(-1/PMT($J$12,$J$5-I90,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L91" s="55" t="str">
+        <f>IF(I90&lt;$J$5,(J91+K91)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M91" s="55" t="str">
+        <f>IF(I90&lt;$J$5,SUM(J91:L91),"")</f>
+        <v/>
+      </c>
+      <c r="N91" s="5" t="str">
+        <f>IF(I90&lt;$J$5,K91/K90-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" t="str">
+        <f>IF(B91&lt;$C$5,B91+1,"")</f>
+        <v/>
+      </c>
+      <c r="C92" s="55" t="str">
+        <f>IF(B91&lt;$C$5,F91,"")</f>
+        <v/>
+      </c>
+      <c r="D92" s="55" t="str">
+        <f>IF(B91&lt;$C$5,-C92/(-1/PMT($C$12,$C$5-B91,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E92" s="55" t="str">
+        <f>IF(B91&lt;$C$5,(C92+D92)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F92" s="55" t="str">
+        <f>IF(B91&lt;$C$5,SUM(C92:E92),"")</f>
+        <v/>
+      </c>
+      <c r="G92" s="5" t="str">
+        <f>IF(B91&lt;$C$5,D92/D91-1,"")</f>
+        <v/>
+      </c>
+      <c r="I92" t="str">
+        <f>IF(I91&lt;$J$5,I91+1,"")</f>
+        <v/>
+      </c>
+      <c r="J92" s="55" t="str">
+        <f>IF(I91&lt;$J$5,M91,"")</f>
+        <v/>
+      </c>
+      <c r="K92" s="55" t="str">
+        <f>IF(I91&lt;$J$5,-J92/(-1/PMT($J$12,$J$5-I91,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L92" s="55" t="str">
+        <f>IF(I91&lt;$J$5,(J92+K92)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M92" s="55" t="str">
+        <f>IF(I91&lt;$J$5,SUM(J92:L92),"")</f>
+        <v/>
+      </c>
+      <c r="N92" s="5" t="str">
+        <f>IF(I91&lt;$J$5,K92/K91-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" t="str">
+        <f>IF(B92&lt;$C$5,B92+1,"")</f>
+        <v/>
+      </c>
+      <c r="C93" s="55" t="str">
+        <f>IF(B92&lt;$C$5,F92,"")</f>
+        <v/>
+      </c>
+      <c r="D93" s="55" t="str">
+        <f>IF(B92&lt;$C$5,-C93/(-1/PMT($C$12,$C$5-B92,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E93" s="55" t="str">
+        <f>IF(B92&lt;$C$5,(C93+D93)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F93" s="55" t="str">
+        <f>IF(B92&lt;$C$5,SUM(C93:E93),"")</f>
+        <v/>
+      </c>
+      <c r="G93" s="5" t="str">
+        <f>IF(B92&lt;$C$5,D93/D92-1,"")</f>
+        <v/>
+      </c>
+      <c r="I93" t="str">
+        <f>IF(I92&lt;$J$5,I92+1,"")</f>
+        <v/>
+      </c>
+      <c r="J93" s="55" t="str">
+        <f>IF(I92&lt;$J$5,M92,"")</f>
+        <v/>
+      </c>
+      <c r="K93" s="55" t="str">
+        <f>IF(I92&lt;$J$5,-J93/(-1/PMT($J$12,$J$5-I92,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L93" s="55" t="str">
+        <f>IF(I92&lt;$J$5,(J93+K93)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M93" s="55" t="str">
+        <f>IF(I92&lt;$J$5,SUM(J93:L93),"")</f>
+        <v/>
+      </c>
+      <c r="N93" s="5" t="str">
+        <f>IF(I92&lt;$J$5,K93/K92-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" t="str">
+        <f>IF(B93&lt;$C$5,B93+1,"")</f>
+        <v/>
+      </c>
+      <c r="C94" s="55" t="str">
+        <f>IF(B93&lt;$C$5,F93,"")</f>
+        <v/>
+      </c>
+      <c r="D94" s="55" t="str">
+        <f>IF(B93&lt;$C$5,-C94/(-1/PMT($C$12,$C$5-B93,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E94" s="55" t="str">
+        <f>IF(B93&lt;$C$5,(C94+D94)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F94" s="55" t="str">
+        <f>IF(B93&lt;$C$5,SUM(C94:E94),"")</f>
+        <v/>
+      </c>
+      <c r="G94" s="5" t="str">
+        <f>IF(B93&lt;$C$5,D94/D93-1,"")</f>
+        <v/>
+      </c>
+      <c r="I94" t="str">
+        <f>IF(I93&lt;$J$5,I93+1,"")</f>
+        <v/>
+      </c>
+      <c r="J94" s="55" t="str">
+        <f>IF(I93&lt;$J$5,M93,"")</f>
+        <v/>
+      </c>
+      <c r="K94" s="55" t="str">
+        <f>IF(I93&lt;$J$5,-J94/(-1/PMT($J$12,$J$5-I93,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L94" s="55" t="str">
+        <f>IF(I93&lt;$J$5,(J94+K94)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M94" s="55" t="str">
+        <f>IF(I93&lt;$J$5,SUM(J94:L94),"")</f>
+        <v/>
+      </c>
+      <c r="N94" s="5" t="str">
+        <f>IF(I93&lt;$J$5,K94/K93-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" t="str">
+        <f>IF(B94&lt;$C$5,B94+1,"")</f>
+        <v/>
+      </c>
+      <c r="C95" s="55" t="str">
+        <f>IF(B94&lt;$C$5,F94,"")</f>
+        <v/>
+      </c>
+      <c r="D95" s="55" t="str">
+        <f>IF(B94&lt;$C$5,-C95/(-1/PMT($C$12,$C$5-B94,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E95" s="55" t="str">
+        <f>IF(B94&lt;$C$5,(C95+D95)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F95" s="55" t="str">
+        <f>IF(B94&lt;$C$5,SUM(C95:E95),"")</f>
+        <v/>
+      </c>
+      <c r="G95" s="5" t="str">
+        <f>IF(B94&lt;$C$5,D95/D94-1,"")</f>
+        <v/>
+      </c>
+      <c r="I95" t="str">
+        <f>IF(I94&lt;$J$5,I94+1,"")</f>
+        <v/>
+      </c>
+      <c r="J95" s="55" t="str">
+        <f>IF(I94&lt;$J$5,M94,"")</f>
+        <v/>
+      </c>
+      <c r="K95" s="55" t="str">
+        <f>IF(I94&lt;$J$5,-J95/(-1/PMT($J$12,$J$5-I94,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L95" s="55" t="str">
+        <f>IF(I94&lt;$J$5,(J95+K95)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M95" s="55" t="str">
+        <f>IF(I94&lt;$J$5,SUM(J95:L95),"")</f>
+        <v/>
+      </c>
+      <c r="N95" s="5" t="str">
+        <f>IF(I94&lt;$J$5,K95/K94-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" t="str">
+        <f>IF(B95&lt;$C$5,B95+1,"")</f>
+        <v/>
+      </c>
+      <c r="C96" s="55" t="str">
+        <f>IF(B95&lt;$C$5,F95,"")</f>
+        <v/>
+      </c>
+      <c r="D96" s="55" t="str">
+        <f>IF(B95&lt;$C$5,-C96/(-1/PMT($C$12,$C$5-B95,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E96" s="55" t="str">
+        <f>IF(B95&lt;$C$5,(C96+D96)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F96" s="55" t="str">
+        <f>IF(B95&lt;$C$5,SUM(C96:E96),"")</f>
+        <v/>
+      </c>
+      <c r="G96" s="5" t="str">
+        <f>IF(B95&lt;$C$5,D96/D95-1,"")</f>
+        <v/>
+      </c>
+      <c r="I96" t="str">
+        <f>IF(I95&lt;$J$5,I95+1,"")</f>
+        <v/>
+      </c>
+      <c r="J96" s="55" t="str">
+        <f>IF(I95&lt;$J$5,M95,"")</f>
+        <v/>
+      </c>
+      <c r="K96" s="55" t="str">
+        <f>IF(I95&lt;$J$5,-J96/(-1/PMT($J$12,$J$5-I95,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L96" s="55" t="str">
+        <f>IF(I95&lt;$J$5,(J96+K96)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M96" s="55" t="str">
+        <f>IF(I95&lt;$J$5,SUM(J96:L96),"")</f>
+        <v/>
+      </c>
+      <c r="N96" s="5" t="str">
+        <f>IF(I95&lt;$J$5,K96/K95-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" t="str">
+        <f>IF(B96&lt;$C$5,B96+1,"")</f>
+        <v/>
+      </c>
+      <c r="C97" s="55" t="str">
+        <f>IF(B96&lt;$C$5,F96,"")</f>
+        <v/>
+      </c>
+      <c r="D97" s="55" t="str">
+        <f>IF(B96&lt;$C$5,-C97/(-1/PMT($C$12,$C$5-B96,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E97" s="55" t="str">
+        <f>IF(B96&lt;$C$5,(C97+D97)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F97" s="55" t="str">
+        <f>IF(B96&lt;$C$5,SUM(C97:E97),"")</f>
+        <v/>
+      </c>
+      <c r="G97" s="5" t="str">
+        <f>IF(B96&lt;$C$5,D97/D96-1,"")</f>
+        <v/>
+      </c>
+      <c r="I97" t="str">
+        <f>IF(I96&lt;$J$5,I96+1,"")</f>
+        <v/>
+      </c>
+      <c r="J97" s="55" t="str">
+        <f>IF(I96&lt;$J$5,M96,"")</f>
+        <v/>
+      </c>
+      <c r="K97" s="55" t="str">
+        <f>IF(I96&lt;$J$5,-J97/(-1/PMT($J$12,$J$5-I96,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L97" s="55" t="str">
+        <f>IF(I96&lt;$J$5,(J97+K97)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M97" s="55" t="str">
+        <f>IF(I96&lt;$J$5,SUM(J97:L97),"")</f>
+        <v/>
+      </c>
+      <c r="N97" s="5" t="str">
+        <f>IF(I96&lt;$J$5,K97/K96-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" t="str">
+        <f>IF(B97&lt;$C$5,B97+1,"")</f>
+        <v/>
+      </c>
+      <c r="C98" s="55" t="str">
+        <f>IF(B97&lt;$C$5,F97,"")</f>
+        <v/>
+      </c>
+      <c r="D98" s="55" t="str">
+        <f>IF(B97&lt;$C$5,-C98/(-1/PMT($C$12,$C$5-B97,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E98" s="55" t="str">
+        <f>IF(B97&lt;$C$5,(C98+D98)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F98" s="55" t="str">
+        <f>IF(B97&lt;$C$5,SUM(C98:E98),"")</f>
+        <v/>
+      </c>
+      <c r="G98" s="5" t="str">
+        <f>IF(B97&lt;$C$5,D98/D97-1,"")</f>
+        <v/>
+      </c>
+      <c r="I98" t="str">
+        <f>IF(I97&lt;$J$5,I97+1,"")</f>
+        <v/>
+      </c>
+      <c r="J98" s="55" t="str">
+        <f>IF(I97&lt;$J$5,M97,"")</f>
+        <v/>
+      </c>
+      <c r="K98" s="55" t="str">
+        <f>IF(I97&lt;$J$5,-J98/(-1/PMT($J$12,$J$5-I97,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L98" s="55" t="str">
+        <f>IF(I97&lt;$J$5,(J98+K98)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M98" s="55" t="str">
+        <f>IF(I97&lt;$J$5,SUM(J98:L98),"")</f>
+        <v/>
+      </c>
+      <c r="N98" s="5" t="str">
+        <f>IF(I97&lt;$J$5,K98/K97-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" t="str">
+        <f>IF(B98&lt;$C$5,B98+1,"")</f>
+        <v/>
+      </c>
+      <c r="C99" s="55" t="str">
+        <f>IF(B98&lt;$C$5,F98,"")</f>
+        <v/>
+      </c>
+      <c r="D99" s="55" t="str">
+        <f>IF(B98&lt;$C$5,-C99/(-1/PMT($C$12,$C$5-B98,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E99" s="55" t="str">
+        <f>IF(B98&lt;$C$5,(C99+D99)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F99" s="55" t="str">
+        <f>IF(B98&lt;$C$5,SUM(C99:E99),"")</f>
+        <v/>
+      </c>
+      <c r="G99" s="5" t="str">
+        <f>IF(B98&lt;$C$5,D99/D98-1,"")</f>
+        <v/>
+      </c>
+      <c r="I99" t="str">
+        <f>IF(I98&lt;$J$5,I98+1,"")</f>
+        <v/>
+      </c>
+      <c r="J99" s="55" t="str">
+        <f>IF(I98&lt;$J$5,M98,"")</f>
+        <v/>
+      </c>
+      <c r="K99" s="55" t="str">
+        <f>IF(I98&lt;$J$5,-J99/(-1/PMT($J$12,$J$5-I98,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L99" s="55" t="str">
+        <f>IF(I98&lt;$J$5,(J99+K99)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M99" s="55" t="str">
+        <f>IF(I98&lt;$J$5,SUM(J99:L99),"")</f>
+        <v/>
+      </c>
+      <c r="N99" s="5" t="str">
+        <f>IF(I98&lt;$J$5,K99/K98-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" t="str">
+        <f>IF(B99&lt;$C$5,B99+1,"")</f>
+        <v/>
+      </c>
+      <c r="C100" s="55" t="str">
+        <f>IF(B99&lt;$C$5,F99,"")</f>
+        <v/>
+      </c>
+      <c r="D100" s="55" t="str">
+        <f>IF(B99&lt;$C$5,-C100/(-1/PMT($C$12,$C$5-B99,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E100" s="55" t="str">
+        <f>IF(B99&lt;$C$5,(C100+D100)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F100" s="55" t="str">
+        <f>IF(B99&lt;$C$5,SUM(C100:E100),"")</f>
+        <v/>
+      </c>
+      <c r="G100" s="5" t="str">
+        <f>IF(B99&lt;$C$5,D100/D99-1,"")</f>
+        <v/>
+      </c>
+      <c r="I100" t="str">
+        <f>IF(I99&lt;$J$5,I99+1,"")</f>
+        <v/>
+      </c>
+      <c r="J100" s="55" t="str">
+        <f>IF(I99&lt;$J$5,M99,"")</f>
+        <v/>
+      </c>
+      <c r="K100" s="55" t="str">
+        <f>IF(I99&lt;$J$5,-J100/(-1/PMT($J$12,$J$5-I99,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L100" s="55" t="str">
+        <f>IF(I99&lt;$J$5,(J100+K100)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M100" s="55" t="str">
+        <f>IF(I99&lt;$J$5,SUM(J100:L100),"")</f>
+        <v/>
+      </c>
+      <c r="N100" s="5" t="str">
+        <f>IF(I99&lt;$J$5,K100/K99-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" t="str">
+        <f>IF(B100&lt;$C$5,B100+1,"")</f>
+        <v/>
+      </c>
+      <c r="C101" s="55" t="str">
+        <f>IF(B100&lt;$C$5,F100,"")</f>
+        <v/>
+      </c>
+      <c r="D101" s="55" t="str">
+        <f>IF(B100&lt;$C$5,-C101/(-1/PMT($C$12,$C$5-B100,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E101" s="55" t="str">
+        <f>IF(B100&lt;$C$5,(C101+D101)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F101" s="55" t="str">
+        <f>IF(B100&lt;$C$5,SUM(C101:E101),"")</f>
+        <v/>
+      </c>
+      <c r="G101" s="5" t="str">
+        <f>IF(B100&lt;$C$5,D101/D100-1,"")</f>
+        <v/>
+      </c>
+      <c r="I101" t="str">
+        <f>IF(I100&lt;$J$5,I100+1,"")</f>
+        <v/>
+      </c>
+      <c r="J101" s="55" t="str">
+        <f>IF(I100&lt;$J$5,M100,"")</f>
+        <v/>
+      </c>
+      <c r="K101" s="55" t="str">
+        <f>IF(I100&lt;$J$5,-J101/(-1/PMT($J$12,$J$5-I100,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L101" s="55" t="str">
+        <f>IF(I100&lt;$J$5,(J101+K101)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M101" s="55" t="str">
+        <f>IF(I100&lt;$J$5,SUM(J101:L101),"")</f>
+        <v/>
+      </c>
+      <c r="N101" s="5" t="str">
+        <f>IF(I100&lt;$J$5,K101/K100-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" t="str">
+        <f>IF(B101&lt;$C$5,B101+1,"")</f>
+        <v/>
+      </c>
+      <c r="C102" s="55" t="str">
+        <f>IF(B101&lt;$C$5,F101,"")</f>
+        <v/>
+      </c>
+      <c r="D102" s="55" t="str">
+        <f>IF(B101&lt;$C$5,-C102/(-1/PMT($C$12,$C$5-B101,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E102" s="55" t="str">
+        <f>IF(B101&lt;$C$5,(C102+D102)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F102" s="55" t="str">
+        <f>IF(B101&lt;$C$5,SUM(C102:E102),"")</f>
+        <v/>
+      </c>
+      <c r="G102" s="5" t="str">
+        <f>IF(B101&lt;$C$5,D102/D101-1,"")</f>
+        <v/>
+      </c>
+      <c r="I102" t="str">
+        <f>IF(I101&lt;$J$5,I101+1,"")</f>
+        <v/>
+      </c>
+      <c r="J102" s="55" t="str">
+        <f>IF(I101&lt;$J$5,M101,"")</f>
+        <v/>
+      </c>
+      <c r="K102" s="55" t="str">
+        <f>IF(I101&lt;$J$5,-J102/(-1/PMT($J$12,$J$5-I101,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L102" s="55" t="str">
+        <f>IF(I101&lt;$J$5,(J102+K102)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M102" s="55" t="str">
+        <f>IF(I101&lt;$J$5,SUM(J102:L102),"")</f>
+        <v/>
+      </c>
+      <c r="N102" s="5" t="str">
+        <f>IF(I101&lt;$J$5,K102/K101-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" t="str">
+        <f>IF(B102&lt;$C$5,B102+1,"")</f>
+        <v/>
+      </c>
+      <c r="C103" s="55" t="str">
+        <f>IF(B102&lt;$C$5,F102,"")</f>
+        <v/>
+      </c>
+      <c r="D103" s="55" t="str">
+        <f>IF(B102&lt;$C$5,-C103/(-1/PMT($C$12,$C$5-B102,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E103" s="55" t="str">
+        <f>IF(B102&lt;$C$5,(C103+D103)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F103" s="55" t="str">
+        <f>IF(B102&lt;$C$5,SUM(C103:E103),"")</f>
+        <v/>
+      </c>
+      <c r="G103" s="5" t="str">
+        <f>IF(B102&lt;$C$5,D103/D102-1,"")</f>
+        <v/>
+      </c>
+      <c r="I103" t="str">
+        <f>IF(I102&lt;$J$5,I102+1,"")</f>
+        <v/>
+      </c>
+      <c r="J103" s="55" t="str">
+        <f>IF(I102&lt;$J$5,M102,"")</f>
+        <v/>
+      </c>
+      <c r="K103" s="55" t="str">
+        <f>IF(I102&lt;$J$5,-J103/(-1/PMT($J$12,$J$5-I102,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L103" s="55" t="str">
+        <f>IF(I102&lt;$J$5,(J103+K103)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M103" s="55" t="str">
+        <f>IF(I102&lt;$J$5,SUM(J103:L103),"")</f>
+        <v/>
+      </c>
+      <c r="N103" s="5" t="str">
+        <f>IF(I102&lt;$J$5,K103/K102-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" t="str">
+        <f>IF(B103&lt;$C$5,B103+1,"")</f>
+        <v/>
+      </c>
+      <c r="C104" s="55" t="str">
+        <f>IF(B103&lt;$C$5,F103,"")</f>
+        <v/>
+      </c>
+      <c r="D104" s="55" t="str">
+        <f>IF(B103&lt;$C$5,-C104/(-1/PMT($C$12,$C$5-B103,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E104" s="55" t="str">
+        <f>IF(B103&lt;$C$5,(C104+D104)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F104" s="55" t="str">
+        <f>IF(B103&lt;$C$5,SUM(C104:E104),"")</f>
+        <v/>
+      </c>
+      <c r="G104" s="5" t="str">
+        <f>IF(B103&lt;$C$5,D104/D103-1,"")</f>
+        <v/>
+      </c>
+      <c r="I104" t="str">
+        <f>IF(I103&lt;$J$5,I103+1,"")</f>
+        <v/>
+      </c>
+      <c r="J104" s="55" t="str">
+        <f>IF(I103&lt;$J$5,M103,"")</f>
+        <v/>
+      </c>
+      <c r="K104" s="55" t="str">
+        <f>IF(I103&lt;$J$5,-J104/(-1/PMT($J$12,$J$5-I103,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L104" s="55" t="str">
+        <f>IF(I103&lt;$J$5,(J104+K104)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M104" s="55" t="str">
+        <f>IF(I103&lt;$J$5,SUM(J104:L104),"")</f>
+        <v/>
+      </c>
+      <c r="N104" s="5" t="str">
+        <f>IF(I103&lt;$J$5,K104/K103-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" t="str">
+        <f>IF(B104&lt;$C$5,B104+1,"")</f>
+        <v/>
+      </c>
+      <c r="C105" s="55" t="str">
+        <f>IF(B104&lt;$C$5,F104,"")</f>
+        <v/>
+      </c>
+      <c r="D105" s="55" t="str">
+        <f>IF(B104&lt;$C$5,-C105/(-1/PMT($C$12,$C$5-B104,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E105" s="55" t="str">
+        <f>IF(B104&lt;$C$5,(C105+D105)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F105" s="55" t="str">
+        <f>IF(B104&lt;$C$5,SUM(C105:E105),"")</f>
+        <v/>
+      </c>
+      <c r="G105" s="5" t="str">
+        <f>IF(B104&lt;$C$5,D105/D104-1,"")</f>
+        <v/>
+      </c>
+      <c r="I105" t="str">
+        <f>IF(I104&lt;$J$5,I104+1,"")</f>
+        <v/>
+      </c>
+      <c r="J105" s="55" t="str">
+        <f>IF(I104&lt;$J$5,M104,"")</f>
+        <v/>
+      </c>
+      <c r="K105" s="55" t="str">
+        <f>IF(I104&lt;$J$5,-J105/(-1/PMT($J$12,$J$5-I104,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L105" s="55" t="str">
+        <f>IF(I104&lt;$J$5,(J105+K105)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M105" s="55" t="str">
+        <f>IF(I104&lt;$J$5,SUM(J105:L105),"")</f>
+        <v/>
+      </c>
+      <c r="N105" s="5" t="str">
+        <f>IF(I104&lt;$J$5,K105/K104-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" t="str">
+        <f>IF(B105&lt;$C$5,B105+1,"")</f>
+        <v/>
+      </c>
+      <c r="C106" s="55" t="str">
+        <f>IF(B105&lt;$C$5,F105,"")</f>
+        <v/>
+      </c>
+      <c r="D106" s="55" t="str">
+        <f>IF(B105&lt;$C$5,-C106/(-1/PMT($C$12,$C$5-B105,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E106" s="55" t="str">
+        <f>IF(B105&lt;$C$5,(C106+D106)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F106" s="55" t="str">
+        <f>IF(B105&lt;$C$5,SUM(C106:E106),"")</f>
+        <v/>
+      </c>
+      <c r="G106" s="5" t="str">
+        <f>IF(B105&lt;$C$5,D106/D105-1,"")</f>
+        <v/>
+      </c>
+      <c r="I106" t="str">
+        <f>IF(I105&lt;$J$5,I105+1,"")</f>
+        <v/>
+      </c>
+      <c r="J106" s="55" t="str">
+        <f>IF(I105&lt;$J$5,M105,"")</f>
+        <v/>
+      </c>
+      <c r="K106" s="55" t="str">
+        <f>IF(I105&lt;$J$5,-J106/(-1/PMT($J$12,$J$5-I105,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L106" s="55" t="str">
+        <f>IF(I105&lt;$J$5,(J106+K106)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M106" s="55" t="str">
+        <f>IF(I105&lt;$J$5,SUM(J106:L106),"")</f>
+        <v/>
+      </c>
+      <c r="N106" s="5" t="str">
+        <f>IF(I105&lt;$J$5,K106/K105-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" t="str">
+        <f>IF(B106&lt;$C$5,B106+1,"")</f>
+        <v/>
+      </c>
+      <c r="C107" s="55" t="str">
+        <f>IF(B106&lt;$C$5,F106,"")</f>
+        <v/>
+      </c>
+      <c r="D107" s="55" t="str">
+        <f>IF(B106&lt;$C$5,-C107/(-1/PMT($C$12,$C$5-B106,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E107" s="55" t="str">
+        <f>IF(B106&lt;$C$5,(C107+D107)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F107" s="55" t="str">
+        <f>IF(B106&lt;$C$5,SUM(C107:E107),"")</f>
+        <v/>
+      </c>
+      <c r="G107" s="5" t="str">
+        <f>IF(B106&lt;$C$5,D107/D106-1,"")</f>
+        <v/>
+      </c>
+      <c r="I107" t="str">
+        <f>IF(I106&lt;$J$5,I106+1,"")</f>
+        <v/>
+      </c>
+      <c r="J107" s="55" t="str">
+        <f>IF(I106&lt;$J$5,M106,"")</f>
+        <v/>
+      </c>
+      <c r="K107" s="55" t="str">
+        <f>IF(I106&lt;$J$5,-J107/(-1/PMT($J$12,$J$5-I106,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L107" s="55" t="str">
+        <f>IF(I106&lt;$J$5,(J107+K107)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M107" s="55" t="str">
+        <f>IF(I106&lt;$J$5,SUM(J107:L107),"")</f>
+        <v/>
+      </c>
+      <c r="N107" s="5" t="str">
+        <f>IF(I106&lt;$J$5,K107/K106-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" t="str">
+        <f>IF(B107&lt;$C$5,B107+1,"")</f>
+        <v/>
+      </c>
+      <c r="C108" s="55" t="str">
+        <f>IF(B107&lt;$C$5,F107,"")</f>
+        <v/>
+      </c>
+      <c r="D108" s="55" t="str">
+        <f>IF(B107&lt;$C$5,-C108/(-1/PMT($C$12,$C$5-B107,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E108" s="55" t="str">
+        <f>IF(B107&lt;$C$5,(C108+D108)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F108" s="55" t="str">
+        <f>IF(B107&lt;$C$5,SUM(C108:E108),"")</f>
+        <v/>
+      </c>
+      <c r="G108" s="5" t="str">
+        <f>IF(B107&lt;$C$5,D108/D107-1,"")</f>
+        <v/>
+      </c>
+      <c r="I108" t="str">
+        <f>IF(I107&lt;$J$5,I107+1,"")</f>
+        <v/>
+      </c>
+      <c r="J108" s="55" t="str">
+        <f>IF(I107&lt;$J$5,M107,"")</f>
+        <v/>
+      </c>
+      <c r="K108" s="55" t="str">
+        <f>IF(I107&lt;$J$5,-J108/(-1/PMT($J$12,$J$5-I107,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L108" s="55" t="str">
+        <f>IF(I107&lt;$J$5,(J108+K108)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M108" s="55" t="str">
+        <f>IF(I107&lt;$J$5,SUM(J108:L108),"")</f>
+        <v/>
+      </c>
+      <c r="N108" s="5" t="str">
+        <f>IF(I107&lt;$J$5,K108/K107-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" t="str">
+        <f>IF(B108&lt;$C$5,B108+1,"")</f>
+        <v/>
+      </c>
+      <c r="C109" s="55" t="str">
+        <f>IF(B108&lt;$C$5,F108,"")</f>
+        <v/>
+      </c>
+      <c r="D109" s="55" t="str">
+        <f>IF(B108&lt;$C$5,-C109/(-1/PMT($C$12,$C$5-B108,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E109" s="55" t="str">
+        <f>IF(B108&lt;$C$5,(C109+D109)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F109" s="55" t="str">
+        <f>IF(B108&lt;$C$5,SUM(C109:E109),"")</f>
+        <v/>
+      </c>
+      <c r="G109" s="5" t="str">
+        <f>IF(B108&lt;$C$5,D109/D108-1,"")</f>
+        <v/>
+      </c>
+      <c r="I109" t="str">
+        <f>IF(I108&lt;$J$5,I108+1,"")</f>
+        <v/>
+      </c>
+      <c r="J109" s="55" t="str">
+        <f>IF(I108&lt;$J$5,M108,"")</f>
+        <v/>
+      </c>
+      <c r="K109" s="55" t="str">
+        <f>IF(I108&lt;$J$5,-J109/(-1/PMT($J$12,$J$5-I108,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L109" s="55" t="str">
+        <f>IF(I108&lt;$J$5,(J109+K109)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M109" s="55" t="str">
+        <f>IF(I108&lt;$J$5,SUM(J109:L109),"")</f>
+        <v/>
+      </c>
+      <c r="N109" s="5" t="str">
+        <f>IF(I108&lt;$J$5,K109/K108-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" t="str">
+        <f>IF(B109&lt;$C$5,B109+1,"")</f>
+        <v/>
+      </c>
+      <c r="C110" s="55" t="str">
+        <f>IF(B109&lt;$C$5,F109,"")</f>
+        <v/>
+      </c>
+      <c r="D110" s="55" t="str">
+        <f>IF(B109&lt;$C$5,-C110/(-1/PMT($C$12,$C$5-B109,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E110" s="55" t="str">
+        <f>IF(B109&lt;$C$5,(C110+D110)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F110" s="55" t="str">
+        <f>IF(B109&lt;$C$5,SUM(C110:E110),"")</f>
+        <v/>
+      </c>
+      <c r="G110" s="5" t="str">
+        <f>IF(B109&lt;$C$5,D110/D109-1,"")</f>
+        <v/>
+      </c>
+      <c r="I110" t="str">
+        <f>IF(I109&lt;$J$5,I109+1,"")</f>
+        <v/>
+      </c>
+      <c r="J110" s="55" t="str">
+        <f>IF(I109&lt;$J$5,M109,"")</f>
+        <v/>
+      </c>
+      <c r="K110" s="55" t="str">
+        <f>IF(I109&lt;$J$5,-J110/(-1/PMT($J$12,$J$5-I109,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L110" s="55" t="str">
+        <f>IF(I109&lt;$J$5,(J110+K110)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M110" s="55" t="str">
+        <f>IF(I109&lt;$J$5,SUM(J110:L110),"")</f>
+        <v/>
+      </c>
+      <c r="N110" s="5" t="str">
+        <f>IF(I109&lt;$J$5,K110/K109-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" t="str">
+        <f>IF(B110&lt;$C$5,B110+1,"")</f>
+        <v/>
+      </c>
+      <c r="C111" s="55" t="str">
+        <f>IF(B110&lt;$C$5,F110,"")</f>
+        <v/>
+      </c>
+      <c r="D111" s="55" t="str">
+        <f>IF(B110&lt;$C$5,-C111/(-1/PMT($C$12,$C$5-B110,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E111" s="55" t="str">
+        <f>IF(B110&lt;$C$5,(C111+D111)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F111" s="55" t="str">
+        <f>IF(B110&lt;$C$5,SUM(C111:E111),"")</f>
+        <v/>
+      </c>
+      <c r="G111" s="5" t="str">
+        <f>IF(B110&lt;$C$5,D111/D110-1,"")</f>
+        <v/>
+      </c>
+      <c r="I111" t="str">
+        <f>IF(I110&lt;$J$5,I110+1,"")</f>
+        <v/>
+      </c>
+      <c r="J111" s="55" t="str">
+        <f>IF(I110&lt;$J$5,M110,"")</f>
+        <v/>
+      </c>
+      <c r="K111" s="55" t="str">
+        <f>IF(I110&lt;$J$5,-J111/(-1/PMT($J$12,$J$5-I110,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L111" s="55" t="str">
+        <f>IF(I110&lt;$J$5,(J111+K111)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M111" s="55" t="str">
+        <f>IF(I110&lt;$J$5,SUM(J111:L111),"")</f>
+        <v/>
+      </c>
+      <c r="N111" s="5" t="str">
+        <f>IF(I110&lt;$J$5,K111/K110-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" t="str">
+        <f>IF(B111&lt;$C$5,B111+1,"")</f>
+        <v/>
+      </c>
+      <c r="C112" s="55" t="str">
+        <f>IF(B111&lt;$C$5,F111,"")</f>
+        <v/>
+      </c>
+      <c r="D112" s="55" t="str">
+        <f>IF(B111&lt;$C$5,-C112/(-1/PMT($C$12,$C$5-B111,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E112" s="55" t="str">
+        <f>IF(B111&lt;$C$5,(C112+D112)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F112" s="55" t="str">
+        <f>IF(B111&lt;$C$5,SUM(C112:E112),"")</f>
+        <v/>
+      </c>
+      <c r="G112" s="5" t="str">
+        <f>IF(B111&lt;$C$5,D112/D111-1,"")</f>
+        <v/>
+      </c>
+      <c r="I112" t="str">
+        <f>IF(I111&lt;$J$5,I111+1,"")</f>
+        <v/>
+      </c>
+      <c r="J112" s="55" t="str">
+        <f>IF(I111&lt;$J$5,M111,"")</f>
+        <v/>
+      </c>
+      <c r="K112" s="55" t="str">
+        <f>IF(I111&lt;$J$5,-J112/(-1/PMT($J$12,$J$5-I111,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L112" s="55" t="str">
+        <f>IF(I111&lt;$J$5,(J112+K112)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M112" s="55" t="str">
+        <f>IF(I111&lt;$J$5,SUM(J112:L112),"")</f>
+        <v/>
+      </c>
+      <c r="N112" s="5" t="str">
+        <f>IF(I111&lt;$J$5,K112/K111-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" t="str">
+        <f>IF(B112&lt;$C$5,B112+1,"")</f>
+        <v/>
+      </c>
+      <c r="C113" s="55" t="str">
+        <f>IF(B112&lt;$C$5,F112,"")</f>
+        <v/>
+      </c>
+      <c r="D113" s="55" t="str">
+        <f>IF(B112&lt;$C$5,-C113/(-1/PMT($C$12,$C$5-B112,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E113" s="55" t="str">
+        <f>IF(B112&lt;$C$5,(C113+D113)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F113" s="55" t="str">
+        <f>IF(B112&lt;$C$5,SUM(C113:E113),"")</f>
+        <v/>
+      </c>
+      <c r="G113" s="5" t="str">
+        <f>IF(B112&lt;$C$5,D113/D112-1,"")</f>
+        <v/>
+      </c>
+      <c r="I113" t="str">
+        <f>IF(I112&lt;$J$5,I112+1,"")</f>
+        <v/>
+      </c>
+      <c r="J113" s="55" t="str">
+        <f>IF(I112&lt;$J$5,M112,"")</f>
+        <v/>
+      </c>
+      <c r="K113" s="55" t="str">
+        <f>IF(I112&lt;$J$5,-J113/(-1/PMT($J$12,$J$5-I112,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L113" s="55" t="str">
+        <f>IF(I112&lt;$J$5,(J113+K113)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M113" s="55" t="str">
+        <f>IF(I112&lt;$J$5,SUM(J113:L113),"")</f>
+        <v/>
+      </c>
+      <c r="N113" s="5" t="str">
+        <f>IF(I112&lt;$J$5,K113/K112-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" t="str">
+        <f>IF(B113&lt;$C$5,B113+1,"")</f>
+        <v/>
+      </c>
+      <c r="C114" s="55" t="str">
+        <f>IF(B113&lt;$C$5,F113,"")</f>
+        <v/>
+      </c>
+      <c r="D114" s="55" t="str">
+        <f>IF(B113&lt;$C$5,-C114/(-1/PMT($C$12,$C$5-B113,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E114" s="55" t="str">
+        <f>IF(B113&lt;$C$5,(C114+D114)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F114" s="55" t="str">
+        <f>IF(B113&lt;$C$5,SUM(C114:E114),"")</f>
+        <v/>
+      </c>
+      <c r="G114" s="5" t="str">
+        <f>IF(B113&lt;$C$5,D114/D113-1,"")</f>
+        <v/>
+      </c>
+      <c r="I114" t="str">
+        <f>IF(I113&lt;$J$5,I113+1,"")</f>
+        <v/>
+      </c>
+      <c r="J114" s="55" t="str">
+        <f>IF(I113&lt;$J$5,M113,"")</f>
+        <v/>
+      </c>
+      <c r="K114" s="55" t="str">
+        <f>IF(I113&lt;$J$5,-J114/(-1/PMT($J$12,$J$5-I113,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L114" s="55" t="str">
+        <f>IF(I113&lt;$J$5,(J114+K114)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M114" s="55" t="str">
+        <f>IF(I113&lt;$J$5,SUM(J114:L114),"")</f>
+        <v/>
+      </c>
+      <c r="N114" s="5" t="str">
+        <f>IF(I113&lt;$J$5,K114/K113-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" t="str">
+        <f>IF(B114&lt;$C$5,B114+1,"")</f>
+        <v/>
+      </c>
+      <c r="C115" s="55" t="str">
+        <f>IF(B114&lt;$C$5,F114,"")</f>
+        <v/>
+      </c>
+      <c r="D115" s="55" t="str">
+        <f>IF(B114&lt;$C$5,-C115/(-1/PMT($C$12,$C$5-B114,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E115" s="55" t="str">
+        <f>IF(B114&lt;$C$5,(C115+D115)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F115" s="55" t="str">
+        <f>IF(B114&lt;$C$5,SUM(C115:E115),"")</f>
+        <v/>
+      </c>
+      <c r="G115" s="5" t="str">
+        <f>IF(B114&lt;$C$5,D115/D114-1,"")</f>
+        <v/>
+      </c>
+      <c r="I115" t="str">
+        <f>IF(I114&lt;$J$5,I114+1,"")</f>
+        <v/>
+      </c>
+      <c r="J115" s="55" t="str">
+        <f>IF(I114&lt;$J$5,M114,"")</f>
+        <v/>
+      </c>
+      <c r="K115" s="55" t="str">
+        <f>IF(I114&lt;$J$5,-J115/(-1/PMT($J$12,$J$5-I114,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L115" s="55" t="str">
+        <f>IF(I114&lt;$J$5,(J115+K115)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M115" s="55" t="str">
+        <f>IF(I114&lt;$J$5,SUM(J115:L115),"")</f>
+        <v/>
+      </c>
+      <c r="N115" s="5" t="str">
+        <f>IF(I114&lt;$J$5,K115/K114-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" t="str">
+        <f>IF(B115&lt;$C$5,B115+1,"")</f>
+        <v/>
+      </c>
+      <c r="C116" s="55" t="str">
+        <f>IF(B115&lt;$C$5,F115,"")</f>
+        <v/>
+      </c>
+      <c r="D116" s="55" t="str">
+        <f>IF(B115&lt;$C$5,-C116/(-1/PMT($C$12,$C$5-B115,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="E116" s="55" t="str">
+        <f>IF(B115&lt;$C$5,(C116+D116)*$C$10,"")</f>
+        <v/>
+      </c>
+      <c r="F116" s="55" t="str">
+        <f>IF(B115&lt;$C$5,SUM(C116:E116),"")</f>
+        <v/>
+      </c>
+      <c r="G116" s="5" t="str">
+        <f>IF(B115&lt;$C$5,D116/D115-1,"")</f>
+        <v/>
+      </c>
+      <c r="I116" t="str">
+        <f>IF(I115&lt;$J$5,I115+1,"")</f>
+        <v/>
+      </c>
+      <c r="J116" s="55" t="str">
+        <f>IF(I115&lt;$J$5,M115,"")</f>
+        <v/>
+      </c>
+      <c r="K116" s="55" t="str">
+        <f>IF(I115&lt;$J$5,-J116/(-1/PMT($J$12,$J$5-I115,1,0,1)),"")</f>
+        <v/>
+      </c>
+      <c r="L116" s="55" t="str">
+        <f>IF(I115&lt;$J$5,(J116+K116)*$J$10,"")</f>
+        <v/>
+      </c>
+      <c r="M116" s="55" t="str">
+        <f>IF(I115&lt;$J$5,SUM(J116:L116),"")</f>
+        <v/>
+      </c>
+      <c r="N116" s="5" t="str">
+        <f>IF(I115&lt;$J$5,K116/K115-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C117" s="55"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="55"/>
+      <c r="J117" s="55"/>
+      <c r="K117" s="55"/>
+      <c r="L117" s="55"/>
+      <c r="M117" s="55"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C118" s="55"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="J118" s="55"/>
+      <c r="K118" s="55"/>
+      <c r="L118" s="55"/>
+      <c r="M118" s="55"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C119" s="55"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="55"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C120" s="55"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="55"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5 C5" xr:uid="{3E75F6A5-D584-4331-A8A3-8231851C3AAC}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA0D0B1-8DF2-43BE-9676-3065B06A9740}">
   <dimension ref="B1:E34"/>
   <sheetViews>
@@ -5044,7 +10591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866A97F4-01A0-4B31-8E89-F508DC1798DC}">
   <dimension ref="D2:F17"/>
   <sheetViews>
